--- a/LibSets/2019-05-12_LibSets_SetData.xlsx
+++ b/LibSets/2019-05-12_LibSets_SetData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="2477">
   <si>
     <t>Balorgh</t>
   </si>
@@ -7466,15 +7466,6 @@
   </si>
   <si>
     <t>LibSets lua table "setInfo" generated code 4/x</t>
-  </si>
-  <si>
-    <t>;J2;}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traitsNeeded=";K2;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dlcId=";O2;)</t>
   </si>
 </sst>
 </file>
@@ -7908,13 +7899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y382"/>
+  <dimension ref="A1:X382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7937,12 +7928,12 @@
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="54.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="114.28515625" style="7" customWidth="1"/>
+    <col min="21" max="22" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="114.28515625" style="7" customWidth="1"/>
     <col min="24" max="24" width="63.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>93</v>
       </c>
@@ -8016,7 +8007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>19</v>
       </c>
@@ -8031,7 +8022,7 @@
       </c>
       <c r="G2" t="str">
         <f t="array" ref="G2">IF(VALUE(K2)&gt;0,"Crafted",IF(OR(EXACT(A2,'LibSets constants'!$G$2:$G$99)),"Monster",IF(OR(EXACT(A2,'LibSets constants'!$I$2:$I$99)),"Trial",IF(OR(EXACT(A2,'LibSets constants'!$K$2:$K$99)),"Arena",IF(OR(EXACT(A2,'LibSets constants'!$M$2:$M$99)),"Overland","")))))</f>
-        <v>Trial</v>
+        <v/>
       </c>
       <c r="H2">
         <v>-1</v>
@@ -8044,15 +8035,6 @@
       </c>
       <c r="K2">
         <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>3</v>
       </c>
       <c r="O2" s="3">
         <v>0</v>
@@ -8072,20 +8054,23 @@
         <v>[19] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U2" s="7" t="str">
-        <f>IF(VALUE(L2)&gt;0,CONCATENATE(", zoneIds={",L2),"")&amp;IF(VALUE(M2)&gt;0,CONCATENATE(",",M2),"")&amp;IF(VALUE(N2)&gt;0,CONCATENATE(",",N2),"")&amp;IF(VALUE(L2)&gt;0,CONCATENATE("},",""),"")</f>
-        <v>, zoneIds={1,2,3},</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>2477</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>2478</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <f>IF(VALUE(L2)&gt;0,CONCATENATE(", zoneIds={",L2),"")&amp;IF(VALUE(M2)&gt;0,CONCATENATE(",",M2),"")&amp;IF(VALUE(N2)&gt;0,CONCATENATE(",",N2),"")&amp;IF(VALUE(L2)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R2="true",R2="false"), CONCATENATE(", veteran=", R2), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V2" s="7" t="str">
+        <f>IF(G2="Trial",", isTrial=true",IF(G2="Arena",", isArena=true", IF(G2="Monster",", isMonster=true",""))) &amp; IF(S2="true", CONCATENATE(", multiTrialSet=true"), "")</f>
+        <v/>
+      </c>
+      <c r="W2" s="7" t="str">
+        <f t="shared" ref="W2:W66" si="0">CONCATENATE(" --",C2," / ",B2)</f>
+        <v xml:space="preserve"> --Vestments of the Warlock / Gewänder des Hexers</v>
+      </c>
+      <c r="X2" s="7" t="str">
+        <f t="shared" ref="X2:X19" si="1">IF(VALUE(K2)&gt;0,CONCATENATE("[",A2,"] = true,        --",C2, " / ", B2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>20</v>
       </c>
@@ -8100,7 +8085,7 @@
       </c>
       <c r="G3" t="str">
         <f t="array" ref="G3">IF(VALUE(K3)&gt;0,"Crafted",IF(OR(EXACT(A3,'LibSets constants'!$G$2:$G$99)),"Monster",IF(OR(EXACT(A3,'LibSets constants'!$I$2:$I$99)),"Trial",IF(OR(EXACT(A3,'LibSets constants'!$K$2:$K$99)),"Arena",IF(OR(EXACT(A3,'LibSets constants'!$M$2:$M$99)),"Overland","")))))</f>
-        <v>Arena</v>
+        <v>Overland</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -8128,23 +8113,27 @@
         <v>105</v>
       </c>
       <c r="T3" s="7" t="str">
-        <f t="shared" ref="T3:T66" si="0">CONCATENATE("[",A3,"] = {wayshrines={",H3,",",I3,",",J3,"}")&amp;IF(VALUE(K3)&gt;0,CONCATENATE(", traitsNeeded=",K3),"")&amp;CONCATENATE(", dlcId=",O3,)</f>
+        <f t="shared" ref="T3:T66" si="2">CONCATENATE("[",A3,"] = {wayshrines={",H3,",",I3,",",J3,"}")&amp;IF(VALUE(K3)&gt;0,CONCATENATE(", traitsNeeded=",K3),"")&amp;CONCATENATE(", dlcId=",O3,)</f>
         <v>[20] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U3" s="7" t="str">
-        <f t="shared" ref="U3:U66" si="1">IF(VALUE(L3)&gt;0,CONCATENATE(", zoneIds={",L3),"")&amp;IF(VALUE(M3)&gt;0,CONCATENATE(",",M3),"")&amp;IF(VALUE(N3)&gt;0,CONCATENATE(",",N3),"")&amp;IF(VALUE(L3)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U3:U66" si="3">IF(VALUE(L3)&gt;0,CONCATENATE(", zoneIds={",L3),"")&amp;IF(VALUE(M3)&gt;0,CONCATENATE(",",M3),"")&amp;IF(VALUE(N3)&gt;0,CONCATENATE(",",N3),"")&amp;IF(VALUE(L3)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R3="true",R3="false"), CONCATENATE(", veteran=", R3), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V3" s="7" t="str">
+        <f t="shared" ref="V3:V66" si="4">IF(G3="Trial",", isTrial=true",IF(G3="Arena",", isArena=true", IF(G3="Monster",", isMonster=true",""))) &amp; IF(S3="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W3" s="7" t="str">
-        <f t="shared" ref="W3:W66" si="2">CONCATENATE(" --",C3," / ",B3)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> --Witchman Armor / Hexenwerk</v>
       </c>
       <c r="X3" s="7" t="str">
-        <f>IF(VALUE(K3)&gt;0,CONCATENATE("[",A3,"] = true,        --",C3, " / ", B3), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>21</v>
       </c>
@@ -8187,23 +8176,27 @@
         <v>105</v>
       </c>
       <c r="T4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[21] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V4" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[21] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U4" s="7" t="str">
+        <v xml:space="preserve"> --Akaviri Dragonguard / Akavirische Drachengarde</v>
+      </c>
+      <c r="X4" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W4" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Akaviri Dragonguard / Akavirische Drachengarde</v>
-      </c>
-      <c r="X4" s="7" t="str">
-        <f>IF(VALUE(K4)&gt;0,CONCATENATE("[",A4,"] = true,        --",C4, " / ", B4), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>22</v>
       </c>
@@ -8246,23 +8239,27 @@
         <v>105</v>
       </c>
       <c r="T5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[22] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[22] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U5" s="7" t="str">
+        <v xml:space="preserve"> --Dreamer's Mantle / Mantel des Träumers</v>
+      </c>
+      <c r="X5" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W5" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Dreamer's Mantle / Mantel des Träumers</v>
-      </c>
-      <c r="X5" s="7" t="str">
-        <f>IF(VALUE(K5)&gt;0,CONCATENATE("[",A5,"] = true,        --",C5, " / ", B5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>23</v>
       </c>
@@ -8305,23 +8302,27 @@
         <v>105</v>
       </c>
       <c r="T6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[23] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V6" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[23] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U6" s="7" t="str">
+        <v xml:space="preserve"> --Archer's Mind / Schützensinn</v>
+      </c>
+      <c r="X6" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Archer's Mind / Schützensinn</v>
-      </c>
-      <c r="X6" s="7" t="str">
-        <f>IF(VALUE(K6)&gt;0,CONCATENATE("[",A6,"] = true,        --",C6, " / ", B6), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>24</v>
       </c>
@@ -8364,23 +8365,27 @@
         <v>105</v>
       </c>
       <c r="T7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[24] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[24] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U7" s="7" t="str">
+        <v xml:space="preserve"> --Footman's Fortune / Geschick des Fußsoldaten</v>
+      </c>
+      <c r="X7" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W7" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Footman's Fortune / Geschick des Fußsoldaten</v>
-      </c>
-      <c r="X7" s="7" t="str">
-        <f>IF(VALUE(K7)&gt;0,CONCATENATE("[",A7,"] = true,        --",C7, " / ", B7), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>25</v>
       </c>
@@ -8423,23 +8428,27 @@
         <v>105</v>
       </c>
       <c r="T8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[25] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V8" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[25] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U8" s="7" t="str">
+        <v xml:space="preserve"> --Desert Rose / Wüstenrose</v>
+      </c>
+      <c r="X8" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W8" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Desert Rose / Wüstenrose</v>
-      </c>
-      <c r="X8" s="7" t="str">
-        <f>IF(VALUE(K8)&gt;0,CONCATENATE("[",A8,"] = true,        --",C8, " / ", B8), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>26</v>
       </c>
@@ -8482,23 +8491,27 @@
         <v>105</v>
       </c>
       <c r="T9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[26] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V9" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[26] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U9" s="7" t="str">
+        <v xml:space="preserve"> --Prisoner's Rags / Lumpen des Gefangenen</v>
+      </c>
+      <c r="X9" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W9" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Prisoner's Rags / Lumpen des Gefangenen</v>
-      </c>
-      <c r="X9" s="7" t="str">
-        <f>IF(VALUE(K9)&gt;0,CONCATENATE("[",A9,"] = true,        --",C9, " / ", B9), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>27</v>
       </c>
@@ -8541,23 +8554,27 @@
         <v>105</v>
       </c>
       <c r="T10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[27] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[27] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U10" s="7" t="str">
+        <v xml:space="preserve"> --Fiord's Legacy / Fiords Erbe</v>
+      </c>
+      <c r="X10" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W10" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Fiord's Legacy / Fiords Erbe</v>
-      </c>
-      <c r="X10" s="7" t="str">
-        <f>IF(VALUE(K10)&gt;0,CONCATENATE("[",A10,"] = true,        --",C10, " / ", B10), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>28</v>
       </c>
@@ -8600,23 +8617,27 @@
         <v>105</v>
       </c>
       <c r="T11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[28] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[28] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U11" s="7" t="str">
+        <v xml:space="preserve"> --Barkskin / Borkenhaut</v>
+      </c>
+      <c r="X11" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W11" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Barkskin / Borkenhaut</v>
-      </c>
-      <c r="X11" s="7" t="str">
-        <f>IF(VALUE(K11)&gt;0,CONCATENATE("[",A11,"] = true,        --",C11, " / ", B11), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>29</v>
       </c>
@@ -8659,23 +8680,27 @@
         <v>105</v>
       </c>
       <c r="T12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[29] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[29] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U12" s="7" t="str">
+        <v xml:space="preserve"> --Sergeant's Mail / Rüstung des Feldwebels</v>
+      </c>
+      <c r="X12" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Sergeant's Mail / Rüstung des Feldwebels</v>
-      </c>
-      <c r="X12" s="7" t="str">
-        <f>IF(VALUE(K12)&gt;0,CONCATENATE("[",A12,"] = true,        --",C12, " / ", B12), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>30</v>
       </c>
@@ -8718,23 +8743,27 @@
         <v>105</v>
       </c>
       <c r="T13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[30] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[30] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U13" s="7" t="str">
+        <v xml:space="preserve"> --Thunderbug's Carapace / Donnerkäferpanzer</v>
+      </c>
+      <c r="X13" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W13" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Thunderbug's Carapace / Donnerkäferpanzer</v>
-      </c>
-      <c r="X13" s="7" t="str">
-        <f>IF(VALUE(K13)&gt;0,CONCATENATE("[",A13,"] = true,        --",C13, " / ", B13), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>31</v>
       </c>
@@ -8777,23 +8806,27 @@
         <v>105</v>
       </c>
       <c r="T14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[31] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[31] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U14" s="7" t="str">
+        <v xml:space="preserve"> --Silks of the Sun / Sonnenseide</v>
+      </c>
+      <c r="X14" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W14" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Silks of the Sun / Sonnenseide</v>
-      </c>
-      <c r="X14" s="7" t="str">
-        <f>IF(VALUE(K14)&gt;0,CONCATENATE("[",A14,"] = true,        --",C14, " / ", B14), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>32</v>
       </c>
@@ -8836,23 +8869,27 @@
         <v>105</v>
       </c>
       <c r="T15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[32] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[32] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U15" s="7" t="str">
+        <v xml:space="preserve"> --Healer's Habit / Bräuche des Heilers</v>
+      </c>
+      <c r="X15" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Healer's Habit / Bräuche des Heilers</v>
-      </c>
-      <c r="X15" s="7" t="str">
-        <f>IF(VALUE(K15)&gt;0,CONCATENATE("[",A15,"] = true,        --",C15, " / ", B15), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>33</v>
       </c>
@@ -8895,19 +8932,23 @@
         <v>105</v>
       </c>
       <c r="T16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[33] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[33] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U16" s="7" t="str">
+        <v xml:space="preserve"> --Viper's Sting / Vipernbiss</v>
+      </c>
+      <c r="X16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Viper's Sting / Vipernbiss</v>
-      </c>
-      <c r="X16" s="7" t="str">
-        <f>IF(VALUE(K16)&gt;0,CONCATENATE("[",A16,"] = true,        --",C16, " / ", B16), "")</f>
         <v/>
       </c>
     </row>
@@ -8954,19 +8995,23 @@
         <v>105</v>
       </c>
       <c r="T17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[34] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[34] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U17" s="7" t="str">
+        <v xml:space="preserve"> --Night Mother's Embrace / Umarmung der Mutter der Nacht</v>
+      </c>
+      <c r="X17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Night Mother's Embrace / Umarmung der Mutter der Nacht</v>
-      </c>
-      <c r="X17" s="7" t="str">
-        <f>IF(VALUE(K17)&gt;0,CONCATENATE("[",A17,"] = true,        --",C17, " / ", B17), "")</f>
         <v/>
       </c>
     </row>
@@ -9013,19 +9058,23 @@
         <v>105</v>
       </c>
       <c r="T18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[35] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[35] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U18" s="7" t="str">
+        <v xml:space="preserve"> --Knightmare / Albtraumritter</v>
+      </c>
+      <c r="X18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Knightmare / Albtraumritter</v>
-      </c>
-      <c r="X18" s="7" t="str">
-        <f>IF(VALUE(K18)&gt;0,CONCATENATE("[",A18,"] = true,        --",C18, " / ", B18), "")</f>
         <v/>
       </c>
     </row>
@@ -9072,19 +9121,23 @@
         <v>105</v>
       </c>
       <c r="T19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[36] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[36] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U19" s="7" t="str">
+        <v xml:space="preserve"> --Armor of the Veiled Heritance / Rüstung des Schleiererbes</v>
+      </c>
+      <c r="X19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W19" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> --Armor of the Veiled Heritance / Rüstung des Schleiererbes</v>
-      </c>
-      <c r="X19" s="7" t="str">
-        <f>IF(VALUE(K19)&gt;0,CONCATENATE("[",A19,"] = true,        --",C19, " / ", B19), "")</f>
         <v/>
       </c>
     </row>
@@ -9131,15 +9184,19 @@
         <v>105</v>
       </c>
       <c r="T20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[37] = {wayshrines={1,177,71}, traitsNeeded=2, dlcId=0</v>
+      </c>
+      <c r="U20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V20" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[37] = {wayshrines={1,177,71}, traitsNeeded=2, dlcId=0</v>
-      </c>
-      <c r="U20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W20" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Death's Wind / Todeswind </v>
       </c>
       <c r="X20" s="7" t="str">
@@ -9190,15 +9247,19 @@
         <v>105</v>
       </c>
       <c r="T21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[38] = {wayshrines={15,169,205}, traitsNeeded=3, dlcId=0</v>
+      </c>
+      <c r="U21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V21" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[38] = {wayshrines={15,169,205}, traitsNeeded=3, dlcId=0</v>
-      </c>
-      <c r="U21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W21" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Twilight's Embrace / Zwielichtkuss </v>
       </c>
       <c r="X21" s="7" t="str">
@@ -9249,15 +9310,19 @@
         <v>105</v>
       </c>
       <c r="T22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[39] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V22" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[39] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W22" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Alessian Order / Alessianischer Orden</v>
       </c>
       <c r="X22" s="7" t="str">
@@ -9308,15 +9373,19 @@
         <v>105</v>
       </c>
       <c r="T23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[40] = {wayshrines={216,121,65}, traitsNeeded=2, dlcId=0</v>
+      </c>
+      <c r="U23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V23" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[40] = {wayshrines={216,121,65}, traitsNeeded=2, dlcId=0</v>
-      </c>
-      <c r="U23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W23" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Night's Silence / Stille der Nacht </v>
       </c>
       <c r="X23" s="7" t="str">
@@ -9367,15 +9436,19 @@
         <v>105</v>
       </c>
       <c r="T24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[41] = {wayshrines={82,151,78}, traitsNeeded=4, dlcId=0</v>
+      </c>
+      <c r="U24" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V24" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[41] = {wayshrines={82,151,78}, traitsNeeded=4, dlcId=0</v>
-      </c>
-      <c r="U24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W24" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Whitestrake's Retribution / Weißplankes Vergeltung </v>
       </c>
       <c r="X24" s="7" t="str">
@@ -9426,15 +9499,19 @@
         <v>105</v>
       </c>
       <c r="T25" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[43] = {wayshrines={23,164,32}, traitsNeeded=3, dlcId=0</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[43] = {wayshrines={23,164,32}, traitsNeeded=3, dlcId=0</v>
-      </c>
-      <c r="U25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W25" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Armor of the Seducer / Rüstung der Verführung </v>
       </c>
       <c r="X25" s="7" t="str">
@@ -9485,15 +9562,19 @@
         <v>105</v>
       </c>
       <c r="T26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[44] = {wayshrines={58,101,93}, traitsNeeded=5, dlcId=0</v>
+      </c>
+      <c r="U26" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V26" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[44] = {wayshrines={58,101,93}, traitsNeeded=5, dlcId=0</v>
-      </c>
-      <c r="U26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W26" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Vampire's Kiss / Kuss des Vampirs </v>
       </c>
       <c r="X26" s="7" t="str">
@@ -9544,15 +9625,19 @@
         <v>105</v>
       </c>
       <c r="T27" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[46] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V27" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[46] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W27" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Noble Duelist's Silks / Seide des edlen Duellanten</v>
       </c>
       <c r="X27" s="7" t="str">
@@ -9603,15 +9688,19 @@
         <v>105</v>
       </c>
       <c r="T28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[47] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V28" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[47] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W28" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Robes of the Withered Hand / Roben der Verdorrten Hand</v>
       </c>
       <c r="X28" s="7" t="str">
@@ -9662,15 +9751,19 @@
         <v>105</v>
       </c>
       <c r="T29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[48] = {wayshrines={13,148,48}, traitsNeeded=4, dlcId=0</v>
+      </c>
+      <c r="U29" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V29" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[48] = {wayshrines={13,148,48}, traitsNeeded=4, dlcId=0</v>
-      </c>
-      <c r="U29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W29" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Magnus' Gift / Magnus' Gabe</v>
       </c>
       <c r="X29" s="7" t="str">
@@ -9721,15 +9814,19 @@
         <v>105</v>
       </c>
       <c r="T30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[49] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U30" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V30" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[49] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W30" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Shadow of the Red Mountain / Schatten des Roten Berges</v>
       </c>
       <c r="X30" s="7" t="str">
@@ -9780,15 +9877,19 @@
         <v>105</v>
       </c>
       <c r="T31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[50] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V31" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[50] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W31" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --The Morag Tong / Morag Tong</v>
       </c>
       <c r="X31" s="7" t="str">
@@ -9839,15 +9940,19 @@
         <v>105</v>
       </c>
       <c r="T32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[51] = {wayshrines={34,156,118}, traitsNeeded=6, dlcId=0</v>
+      </c>
+      <c r="U32" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V32" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[51] = {wayshrines={34,156,118}, traitsNeeded=6, dlcId=0</v>
-      </c>
-      <c r="U32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W32" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Night Mother's Gaze / Blick der Mutter der Nacht</v>
       </c>
       <c r="X32" s="7" t="str">
@@ -9898,15 +10003,19 @@
         <v>105</v>
       </c>
       <c r="T33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[52] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U33" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V33" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[52] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W33" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Beckoning Steel / Klingender Stahl</v>
       </c>
       <c r="X33" s="7" t="str">
@@ -9957,15 +10066,19 @@
         <v>105</v>
       </c>
       <c r="T34" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[53] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U34" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V34" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[53] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W34" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --The Ice Furnace / Eisschmiede</v>
       </c>
       <c r="X34" s="7" t="str">
@@ -10016,15 +10129,19 @@
         <v>105</v>
       </c>
       <c r="T35" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[54] = {wayshrines={7,175,77}, traitsNeeded=2, dlcId=0</v>
+      </c>
+      <c r="U35" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V35" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[54] = {wayshrines={7,175,77}, traitsNeeded=2, dlcId=0</v>
-      </c>
-      <c r="U35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W35" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Ashen Grip / Aschengriff</v>
       </c>
       <c r="X35" s="7" t="str">
@@ -10075,15 +10192,19 @@
         <v>105</v>
       </c>
       <c r="T36" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[55] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U36" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V36" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[55] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W36" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Prayer Shawl / Gebetstuch</v>
       </c>
       <c r="X36" s="7" t="str">
@@ -10134,15 +10255,19 @@
         <v>105</v>
       </c>
       <c r="T37" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[56] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U37" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V37" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[56] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W37" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Stendarr's Embrace / Stendarrs Umarmung</v>
       </c>
       <c r="X37" s="7" t="str">
@@ -10193,15 +10318,19 @@
         <v>105</v>
       </c>
       <c r="T38" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[57] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U38" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V38" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[57] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W38" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Syrabane's Grip / Syrabanns Griff</v>
       </c>
       <c r="X38" s="7" t="str">
@@ -10252,15 +10381,19 @@
         <v>105</v>
       </c>
       <c r="T39" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[58] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V39" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[58] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W39" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Hide of the Werewolf / Fell des Werwolfs</v>
       </c>
       <c r="X39" s="7" t="str">
@@ -10311,15 +10444,19 @@
         <v>105</v>
       </c>
       <c r="T40" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[59] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U40" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V40" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[59] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W40" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Kyne's Kiss / Kynes Kuss</v>
       </c>
       <c r="X40" s="7" t="str">
@@ -10370,15 +10507,19 @@
         <v>105</v>
       </c>
       <c r="T41" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[60] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U41" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V41" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[60] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W41" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Darkstride / Dunkelschritt</v>
       </c>
       <c r="X41" s="7" t="str">
@@ -10429,15 +10570,19 @@
         <v>105</v>
       </c>
       <c r="T42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[61] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U42" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V42" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[61] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W42" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Dreugh King Slayer / Dreughkönigsschlächter</v>
       </c>
       <c r="X42" s="7" t="str">
@@ -10488,15 +10633,19 @@
         <v>105</v>
       </c>
       <c r="T43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[62] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U43" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V43" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[62] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W43" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Hatchling's Shell / Schlüpflingspanzer</v>
       </c>
       <c r="X43" s="7" t="str">
@@ -10547,15 +10696,19 @@
         <v>105</v>
       </c>
       <c r="T44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[63] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U44" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V44" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[63] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W44" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --The Juggernaut / Koloss</v>
       </c>
       <c r="X44" s="7" t="str">
@@ -10606,15 +10759,19 @@
         <v>105</v>
       </c>
       <c r="T45" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[64] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U45" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V45" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[64] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W45" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Shadow Dancer's Raiment / Kleidung des Schattentänzers</v>
       </c>
       <c r="X45" s="7" t="str">
@@ -10665,15 +10822,19 @@
         <v>105</v>
       </c>
       <c r="T46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[65] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U46" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V46" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[65] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W46" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Bloodthorn's Touch / Spur eines Blutdorns</v>
       </c>
       <c r="X46" s="7" t="str">
@@ -10724,15 +10885,19 @@
         <v>105</v>
       </c>
       <c r="T47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[66] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U47" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V47" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[66] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W47" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Robes of the Hist / Roben des Hist</v>
       </c>
       <c r="X47" s="7" t="str">
@@ -10783,15 +10948,19 @@
         <v>105</v>
       </c>
       <c r="T48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[67] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U48" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V48" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[67] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W48" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Shadow Walker / Schattengänger</v>
       </c>
       <c r="X48" s="7" t="str">
@@ -10842,15 +11011,19 @@
         <v>105</v>
       </c>
       <c r="T49" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[68] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U49" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V49" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[68] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W49" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Stygian / Stygier</v>
       </c>
       <c r="X49" s="7" t="str">
@@ -10901,15 +11074,19 @@
         <v>105</v>
       </c>
       <c r="T50" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[69] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U50" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V50" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[69] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W50" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Ranger's Gait / Laufstil des Waldläufers</v>
       </c>
       <c r="X50" s="7" t="str">
@@ -10960,15 +11137,19 @@
         <v>105</v>
       </c>
       <c r="T51" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[70] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U51" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V51" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[70] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W51" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Seventh Legion Brute / Rohling der siebten Legion</v>
       </c>
       <c r="X51" s="7" t="str">
@@ -11019,15 +11200,19 @@
         <v>105</v>
       </c>
       <c r="T52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[71] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U52" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V52" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[71] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W52" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Durok's Bane / Duroks Fluch</v>
       </c>
       <c r="X52" s="7" t="str">
@@ -11078,15 +11263,19 @@
         <v>105</v>
       </c>
       <c r="T53" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[72] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U53" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V53" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[72] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W53" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Nikulas' Heavy Armor / Nikulas' schwere Rüstung</v>
       </c>
       <c r="X53" s="7" t="str">
@@ -11137,15 +11326,19 @@
         <v>105</v>
       </c>
       <c r="T54" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[73] = {wayshrines={135,135,135}, traitsNeeded=8, dlcId=0</v>
+      </c>
+      <c r="U54" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V54" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[73] = {wayshrines={135,135,135}, traitsNeeded=8, dlcId=0</v>
-      </c>
-      <c r="U54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W54" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Oblivion's Foe / Erinnerung</v>
       </c>
       <c r="X54" s="7" t="str">
@@ -11196,15 +11389,19 @@
         <v>105</v>
       </c>
       <c r="T55" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[74] = {wayshrines={133,133,133}, traitsNeeded=8, dlcId=0</v>
+      </c>
+      <c r="U55" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V55" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[74] = {wayshrines={133,133,133}, traitsNeeded=8, dlcId=0</v>
-      </c>
-      <c r="U55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W55" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Spectre's Eye / Schemenauge</v>
       </c>
       <c r="X55" s="7" t="str">
@@ -11255,15 +11452,19 @@
         <v>105</v>
       </c>
       <c r="T56" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[75] = {wayshrines={19,165,24}, traitsNeeded=3, dlcId=0</v>
+      </c>
+      <c r="U56" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V56" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[75] = {wayshrines={19,165,24}, traitsNeeded=3, dlcId=0</v>
-      </c>
-      <c r="U56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W56" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Torug's Pact / Torugs Pakt</v>
       </c>
       <c r="X56" s="7" t="str">
@@ -11314,15 +11515,19 @@
         <v>105</v>
       </c>
       <c r="T57" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[76] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U57" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V57" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[76] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W57" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Robes of Alteration Mastery / Roben der Veränderungsbeherrschung</v>
       </c>
       <c r="X57" s="7" t="str">
@@ -11373,15 +11578,19 @@
         <v>105</v>
       </c>
       <c r="T58" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[77] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U58" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V58" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[77] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W58" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Crusader / Glaubenskrieger</v>
       </c>
       <c r="X58" s="7" t="str">
@@ -11432,15 +11641,19 @@
         <v>105</v>
       </c>
       <c r="T59" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[78] = {wayshrines={9,154,51}, traitsNeeded=4, dlcId=0</v>
+      </c>
+      <c r="U59" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V59" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[78] = {wayshrines={9,154,51}, traitsNeeded=4, dlcId=0</v>
-      </c>
-      <c r="U59" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W59" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Hist Bark / Histrinde</v>
       </c>
       <c r="X59" s="7" t="str">
@@ -11491,15 +11704,19 @@
         <v>105</v>
       </c>
       <c r="T60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[79] = {wayshrines={35,144,111}, traitsNeeded=6, dlcId=0</v>
+      </c>
+      <c r="U60" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V60" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[79] = {wayshrines={35,144,111}, traitsNeeded=6, dlcId=0</v>
-      </c>
-      <c r="U60" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W60" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Willow's Path / Weidenpfad</v>
       </c>
       <c r="X60" s="7" t="str">
@@ -11550,15 +11767,19 @@
         <v>105</v>
       </c>
       <c r="T61" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[80] = {wayshrines={39,161,113}, traitsNeeded=6, dlcId=0</v>
+      </c>
+      <c r="U61" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V61" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[80] = {wayshrines={39,161,113}, traitsNeeded=6, dlcId=0</v>
-      </c>
-      <c r="U61" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W61" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Hunding's Rage / Hundings Zorn</v>
       </c>
       <c r="X61" s="7" t="str">
@@ -11609,15 +11830,19 @@
         <v>105</v>
       </c>
       <c r="T62" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[81] = {wayshrines={137,103,89}, traitsNeeded=5, dlcId=0</v>
+      </c>
+      <c r="U62" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V62" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[81] = {wayshrines={137,103,89}, traitsNeeded=5, dlcId=0</v>
-      </c>
-      <c r="U62" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W62" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Song of Lamae / Lied der Lamien</v>
       </c>
       <c r="X62" s="7" t="str">
@@ -11668,15 +11893,19 @@
         <v>105</v>
       </c>
       <c r="T63" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[82] = {wayshrines={155,105,95}, traitsNeeded=5, dlcId=0</v>
+      </c>
+      <c r="U63" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V63" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[82] = {wayshrines={155,105,95}, traitsNeeded=5, dlcId=0</v>
-      </c>
-      <c r="U63" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W63" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Alessia's Bulwark / Alessias Bollwerk</v>
       </c>
       <c r="X63" s="7" t="str">
@@ -11727,15 +11956,19 @@
         <v>105</v>
       </c>
       <c r="T64" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[83] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U64" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V64" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[83] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W64" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Elf Bane / Elfenfluch</v>
       </c>
       <c r="X64" s="7" t="str">
@@ -11786,15 +12019,19 @@
         <v>105</v>
       </c>
       <c r="T65" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[84] = {wayshrines={-2,-2,-2}, traitsNeeded=8, dlcId=0</v>
+      </c>
+      <c r="U65" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V65" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[84] = {wayshrines={-2,-2,-2}, traitsNeeded=8, dlcId=0</v>
-      </c>
-      <c r="U65" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W65" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Orgnum's Scales / Orgnums Schuppen</v>
       </c>
       <c r="X65" s="7" t="str">
@@ -11845,15 +12082,19 @@
         <v>105</v>
       </c>
       <c r="T66" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>[85] = {wayshrines={-1,-1,-1}, dlcId=0</v>
+      </c>
+      <c r="U66" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V66" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>[85] = {wayshrines={-1,-1,-1}, dlcId=0</v>
-      </c>
-      <c r="U66" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W66" s="7" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve"> --Almalexia's Mercy / Almalexias Gnade</v>
       </c>
       <c r="X66" s="7" t="str">
@@ -11904,15 +12145,19 @@
         <v>105</v>
       </c>
       <c r="T67" s="7" t="str">
-        <f t="shared" ref="T67:T130" si="3">CONCATENATE("[",A67,"] = {wayshrines={",H67,",",I67,",",J67,"}")&amp;IF(VALUE(K67)&gt;0,CONCATENATE(", traitsNeeded=",K67),"")&amp;CONCATENATE(", dlcId=",O67,)</f>
+        <f t="shared" ref="T67:T130" si="5">CONCATENATE("[",A67,"] = {wayshrines={",H67,",",I67,",",J67,"}")&amp;IF(VALUE(K67)&gt;0,CONCATENATE(", traitsNeeded=",K67),"")&amp;CONCATENATE(", dlcId=",O67,)</f>
         <v>[86] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U67" s="7" t="str">
-        <f t="shared" ref="U67:U130" si="4">IF(VALUE(L67)&gt;0,CONCATENATE(", zoneIds={",L67),"")&amp;IF(VALUE(M67)&gt;0,CONCATENATE(",",M67),"")&amp;IF(VALUE(N67)&gt;0,CONCATENATE(",",N67),"")&amp;IF(VALUE(L67)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U67:U130" si="6">IF(VALUE(L67)&gt;0,CONCATENATE(", zoneIds={",L67),"")&amp;IF(VALUE(M67)&gt;0,CONCATENATE(",",M67),"")&amp;IF(VALUE(N67)&gt;0,CONCATENATE(",",N67),"")&amp;IF(VALUE(L67)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R67="true",R67="false"), CONCATENATE(", veteran=", R67), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V67" s="7" t="str">
+        <f t="shared" ref="V67:V130" si="7">IF(G67="Trial",", isTrial=true",IF(G67="Arena",", isArena=true", IF(G67="Monster",", isMonster=true",""))) &amp; IF(S67="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W67" s="7" t="str">
-        <f t="shared" ref="W67:W130" si="5">CONCATENATE(" --",C67," / ",B67)</f>
+        <f t="shared" ref="W67:W130" si="8">CONCATENATE(" --",C67," / ",B67)</f>
         <v xml:space="preserve"> --Queen's Elegance / Eleganz der Königin</v>
       </c>
       <c r="X67" s="7" t="str">
@@ -11963,15 +12208,19 @@
         <v>105</v>
       </c>
       <c r="T68" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[87] = {wayshrines={-1,-1,-1}, traitsNeeded=8, dlcId=0</v>
       </c>
       <c r="U68" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V68" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W68" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Eyes of Mara / Augen von Mara</v>
       </c>
       <c r="X68" s="7" t="str">
@@ -12022,15 +12271,19 @@
         <v>105</v>
       </c>
       <c r="T69" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[88] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U69" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V69" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W69" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Robes of Destruction Mastery / Roben der Zerstörungsbeherrschung</v>
       </c>
       <c r="X69" s="7" t="str">
@@ -12081,15 +12334,19 @@
         <v>105</v>
       </c>
       <c r="T70" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[89] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U70" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V70" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W70" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Sentry / Wachposten</v>
       </c>
       <c r="X70" s="7" t="str">
@@ -12140,15 +12397,19 @@
         <v>105</v>
       </c>
       <c r="T71" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[90] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U71" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V71" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W71" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Senche's Bite / Biss des Senche</v>
       </c>
       <c r="X71" s="7" t="str">
@@ -12199,15 +12460,19 @@
         <v>105</v>
       </c>
       <c r="T72" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[91] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U72" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V72" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W72" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Oblivion's Edge / Vorteil des Vergessens</v>
       </c>
       <c r="X72" s="7" t="str">
@@ -12258,15 +12523,19 @@
         <v>105</v>
       </c>
       <c r="T73" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[92] = {wayshrines={-2,-2,-2}, traitsNeeded=8, dlcId=0</v>
       </c>
       <c r="U73" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V73" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W73" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Kagrenac's Hope / Kagrenacs Hoffnung</v>
       </c>
       <c r="X73" s="7" t="str">
@@ -12317,15 +12586,19 @@
         <v>105</v>
       </c>
       <c r="T74" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[93] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U74" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V74" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W74" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Storm Knight's Plate / Wut des Sturmritters</v>
       </c>
       <c r="X74" s="7" t="str">
@@ -12376,15 +12649,19 @@
         <v>105</v>
       </c>
       <c r="T75" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[94] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U75" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V75" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W75" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Meridia's Blessed Armor / Meridias gesegnete Rüstung</v>
       </c>
       <c r="X75" s="7" t="str">
@@ -12435,15 +12712,19 @@
         <v>105</v>
       </c>
       <c r="T76" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[95] = {wayshrines={-1,-1,-1}, traitsNeeded=8, dlcId=0</v>
       </c>
       <c r="U76" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V76" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W76" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Shalidor's Curse / Shalidors Fluch</v>
       </c>
       <c r="X76" s="7" t="str">
@@ -12494,15 +12775,19 @@
         <v>105</v>
       </c>
       <c r="T77" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[96] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U77" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V77" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W77" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Armor of Truth / Rüstung der Wahrheit</v>
       </c>
       <c r="X77" s="7" t="str">
@@ -12553,15 +12838,19 @@
         <v>105</v>
       </c>
       <c r="T78" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[97] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U78" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V78" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W78" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --The Arch-Mage / Erzmagier</v>
       </c>
       <c r="X78" s="7" t="str">
@@ -12612,15 +12901,19 @@
         <v>105</v>
       </c>
       <c r="T79" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[98] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U79" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V79" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W79" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Necropotence / Nekropotenz</v>
       </c>
       <c r="X79" s="7" t="str">
@@ -12671,15 +12964,19 @@
         <v>105</v>
       </c>
       <c r="T80" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[99] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U80" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V80" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W80" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Salvation / Erlösung</v>
       </c>
       <c r="X80" s="7" t="str">
@@ -12730,15 +13027,19 @@
         <v>105</v>
       </c>
       <c r="T81" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[100] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U81" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V81" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W81" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Hawk's Eye / Falkenauge</v>
       </c>
       <c r="X81" s="7" t="str">
@@ -12789,15 +13090,19 @@
         <v>105</v>
       </c>
       <c r="T82" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[101] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U82" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V82" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W82" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Affliction / Elend</v>
       </c>
       <c r="X82" s="7" t="str">
@@ -12848,15 +13153,19 @@
         <v>105</v>
       </c>
       <c r="T83" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[102] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U83" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V83" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W83" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Duneripper's Scales / Schuppen des Dünenbrechers</v>
       </c>
       <c r="X83" s="7" t="str">
@@ -12907,15 +13216,19 @@
         <v>105</v>
       </c>
       <c r="T84" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[103] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U84" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V84" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W84" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Magicka Furnace / Magickaschmiede</v>
       </c>
       <c r="X84" s="7" t="str">
@@ -12966,15 +13279,19 @@
         <v>105</v>
       </c>
       <c r="T85" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[104] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U85" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V85" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W85" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Curse Eater / Fluchfresser</v>
       </c>
       <c r="X85" s="7" t="str">
@@ -13025,15 +13342,19 @@
         <v>105</v>
       </c>
       <c r="T86" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[105] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U86" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V86" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W86" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Twin Sisters / Zwillingsschwestern</v>
       </c>
       <c r="X86" s="7" t="str">
@@ -13084,15 +13405,19 @@
         <v>105</v>
       </c>
       <c r="T87" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[106] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U87" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V87" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W87" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Wilderqueen's Arch / Bogen der Wildkönigin</v>
       </c>
       <c r="X87" s="7" t="str">
@@ -13143,15 +13468,19 @@
         <v>105</v>
       </c>
       <c r="T88" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[107] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U88" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V88" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W88" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Wyrd Tree's Blessing / Segen des Wyrdbaums</v>
       </c>
       <c r="X88" s="7" t="str">
@@ -13202,15 +13531,19 @@
         <v>105</v>
       </c>
       <c r="T89" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[108] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U89" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V89" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W89" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Ravager / Verwüster</v>
       </c>
       <c r="X89" s="7" t="str">
@@ -13261,15 +13594,19 @@
         <v>105</v>
       </c>
       <c r="T90" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[109] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U90" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V90" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W90" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Light of Cyrodiil / Licht von Cyrodiil</v>
       </c>
       <c r="X90" s="7" t="str">
@@ -13320,15 +13657,19 @@
         <v>105</v>
       </c>
       <c r="T91" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[110] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U91" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V91" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W91" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Sanctuary / Heiligtum</v>
       </c>
       <c r="X91" s="7" t="str">
@@ -13379,15 +13720,19 @@
         <v>105</v>
       </c>
       <c r="T92" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[111] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U92" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V92" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W92" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Ward of Cyrodiil / Schutz von Cyrodiil</v>
       </c>
       <c r="X92" s="7" t="str">
@@ -13438,15 +13783,19 @@
         <v>105</v>
       </c>
       <c r="T93" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[112] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U93" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V93" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W93" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Night Terror / Nachtschrecken</v>
       </c>
       <c r="X93" s="7" t="str">
@@ -13497,15 +13846,19 @@
         <v>105</v>
       </c>
       <c r="T94" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[113] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U94" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V94" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W94" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Crest of Cyrodiil / Wappen von Cyrodiil</v>
       </c>
       <c r="X94" s="7" t="str">
@@ -13556,15 +13909,19 @@
         <v>105</v>
       </c>
       <c r="T95" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[114] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U95" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V95" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W95" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Soulshine / Seelenschein</v>
       </c>
       <c r="X95" s="7" t="str">
@@ -13615,15 +13972,19 @@
         <v>105</v>
       </c>
       <c r="T96" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[116] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U96" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V96" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W96" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --The Destruction Suite / Garnitur der Zerstörung</v>
       </c>
       <c r="X96" s="7" t="str">
@@ -13674,15 +14035,19 @@
         <v>105</v>
       </c>
       <c r="T97" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[117] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U97" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V97" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W97" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Relics of the Physician / Relikte des Mediziners Ansur</v>
       </c>
       <c r="X97" s="7" t="str">
@@ -13733,15 +14098,19 @@
         <v>105</v>
       </c>
       <c r="T98" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[118] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U98" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V98" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W98" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Treasures of the Earthforge / Schätze der Erdenschmiede</v>
       </c>
       <c r="X98" s="7" t="str">
@@ -13792,15 +14161,19 @@
         <v>105</v>
       </c>
       <c r="T99" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[119] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U99" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V99" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W99" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Relics of the Rebellion / Relikte der Rebellion</v>
       </c>
       <c r="X99" s="7" t="str">
@@ -13851,15 +14224,19 @@
         <v>105</v>
       </c>
       <c r="T100" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[120] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U100" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V100" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W100" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Arms of Infernace / Waffen Infernals</v>
       </c>
       <c r="X100" s="7" t="str">
@@ -13910,15 +14287,19 @@
         <v>105</v>
       </c>
       <c r="T101" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[121] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U101" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V101" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W101" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Arms of the Ancestors / Waffen der Ahnen</v>
       </c>
       <c r="X101" s="7" t="str">
@@ -13969,15 +14350,19 @@
         <v>105</v>
       </c>
       <c r="T102" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[122] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U102" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V102" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W102" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Ebon Armory / Ebenerzarsenal</v>
       </c>
       <c r="X102" s="7" t="str">
@@ -14028,15 +14413,19 @@
         <v>105</v>
       </c>
       <c r="T103" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[123] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U103" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V103" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W103" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Hircine's Veneer / Hircines Schein</v>
       </c>
       <c r="X103" s="7" t="str">
@@ -14087,15 +14476,19 @@
         <v>105</v>
       </c>
       <c r="T104" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[124] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U104" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V104" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W104" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --The Worm's Raiment / Garderobe des Wurms</v>
       </c>
       <c r="X104" s="7" t="str">
@@ -14146,15 +14539,19 @@
         <v>105</v>
       </c>
       <c r="T105" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[125] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U105" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V105" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W105" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Wrath of the Imperium / Zorn des Kaiserreichs</v>
       </c>
       <c r="X105" s="7" t="str">
@@ -14205,15 +14602,19 @@
         <v>105</v>
       </c>
       <c r="T106" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[126] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U106" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V106" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W106" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Grace of the Ancients / Anmut der Uralten</v>
       </c>
       <c r="X106" s="7" t="str">
@@ -14264,15 +14665,19 @@
         <v>105</v>
       </c>
       <c r="T107" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[127] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U107" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V107" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W107" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Deadly Strike / Tödlicher Stoß</v>
       </c>
       <c r="X107" s="7" t="str">
@@ -14323,15 +14728,19 @@
         <v>105</v>
       </c>
       <c r="T108" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[128] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U108" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V108" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W108" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Blessing of the Potentates / Segen des Potentaten</v>
       </c>
       <c r="X108" s="7" t="str">
@@ -14382,15 +14791,19 @@
         <v>105</v>
       </c>
       <c r="T109" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[129] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U109" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V109" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W109" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Vengeance Leech / Saugende Vergeltung</v>
       </c>
       <c r="X109" s="7" t="str">
@@ -14441,15 +14854,19 @@
         <v>105</v>
       </c>
       <c r="T110" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[130] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U110" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V110" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W110" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Eagle Eye / Adlerauge</v>
       </c>
       <c r="X110" s="7" t="str">
@@ -14500,15 +14917,19 @@
         <v>105</v>
       </c>
       <c r="T111" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[131] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U111" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V111" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W111" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Bastion of the Heartland / Bastion des Herzlandes</v>
       </c>
       <c r="X111" s="7" t="str">
@@ -14559,15 +14980,19 @@
         <v>105</v>
       </c>
       <c r="T112" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[132] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U112" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V112" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W112" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Shield of the Valiant / Schild des Tapferen</v>
       </c>
       <c r="X112" s="7" t="str">
@@ -14618,15 +15043,19 @@
         <v>105</v>
       </c>
       <c r="T113" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[133] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U113" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V113" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W113" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Buffer of the Swift / Dämpfer des Geschwinden</v>
       </c>
       <c r="X113" s="7" t="str">
@@ -14677,15 +15106,19 @@
         <v>105</v>
       </c>
       <c r="T114" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[134] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U114" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V114" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W114" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Shroud of the Lich / Tuch des Lich</v>
       </c>
       <c r="X114" s="7" t="str">
@@ -14736,15 +15169,19 @@
         <v>105</v>
       </c>
       <c r="T115" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[135] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U115" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V115" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W115" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Draugr's Heritage / Erbe des Draugrs</v>
       </c>
       <c r="X115" s="7" t="str">
@@ -14795,15 +15232,19 @@
         <v>105</v>
       </c>
       <c r="T116" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[136] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U116" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V116" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W116" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Immortal Warrior / Unsterblicher Krieger</v>
       </c>
       <c r="X116" s="7" t="str">
@@ -14854,15 +15295,19 @@
         <v>105</v>
       </c>
       <c r="T117" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[137] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U117" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V117" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W117" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Berserking Warrior / Tobender Krieger</v>
       </c>
       <c r="X117" s="7" t="str">
@@ -14913,15 +15358,19 @@
         <v>105</v>
       </c>
       <c r="T118" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[138] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U118" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V118" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W118" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Defending Warrior / Verteidigender Krieger</v>
       </c>
       <c r="X118" s="7" t="str">
@@ -14972,15 +15421,19 @@
         <v>105</v>
       </c>
       <c r="T119" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[139] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U119" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V119" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W119" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Wise Mage / Weiser Magier</v>
       </c>
       <c r="X119" s="7" t="str">
@@ -15031,15 +15484,19 @@
         <v>105</v>
       </c>
       <c r="T120" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[140] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U120" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V120" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W120" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Destructive Mage / Zerstörerischer Magier</v>
       </c>
       <c r="X120" s="7" t="str">
@@ -15090,15 +15547,19 @@
         <v>105</v>
       </c>
       <c r="T121" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[141] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U121" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V121" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W121" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Healing Mage / Heilender Magier</v>
       </c>
       <c r="X121" s="7" t="str">
@@ -15149,15 +15610,19 @@
         <v>105</v>
       </c>
       <c r="T122" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[142] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U122" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V122" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W122" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Quick Serpent / Flinke Schlange</v>
       </c>
       <c r="X122" s="7" t="str">
@@ -15208,15 +15673,19 @@
         <v>105</v>
       </c>
       <c r="T123" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[143] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U123" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V123" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W123" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Poisonous Serpent / Giftschlange</v>
       </c>
       <c r="X123" s="7" t="str">
@@ -15267,15 +15736,19 @@
         <v>105</v>
       </c>
       <c r="T124" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[144] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U124" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V124" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W124" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Twice-Fanged Serpent / Doppelzüngige Schlange</v>
       </c>
       <c r="X124" s="7" t="str">
@@ -15326,15 +15799,19 @@
         <v>105</v>
       </c>
       <c r="T125" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[145] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U125" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V125" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W125" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Way of Fire / Weg des Feuers</v>
       </c>
       <c r="X125" s="7" t="str">
@@ -15385,15 +15862,19 @@
         <v>105</v>
       </c>
       <c r="T126" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[146] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U126" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V126" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W126" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Way of Air / Weg der Luft</v>
       </c>
       <c r="X126" s="7" t="str">
@@ -15444,15 +15925,19 @@
         <v>105</v>
       </c>
       <c r="T127" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[147] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U127" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V127" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W127" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Way of Martial Knowledge / Weg der Kampfkunst</v>
       </c>
       <c r="X127" s="7" t="str">
@@ -15503,15 +15988,19 @@
         <v>105</v>
       </c>
       <c r="T128" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[148] = {wayshrines={217,217,217}, traitsNeeded=8, dlcId=0</v>
       </c>
       <c r="U128" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V128" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W128" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Way of the Arena / Weg der Arena</v>
       </c>
       <c r="X128" s="7" t="str">
@@ -15562,15 +16051,19 @@
         <v>105</v>
       </c>
       <c r="T129" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[155] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U129" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V129" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W129" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Undaunted Bastion / Unerschrockenen-Bastion</v>
       </c>
       <c r="X129" s="7" t="str">
@@ -15621,15 +16114,19 @@
         <v>105</v>
       </c>
       <c r="T130" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[156] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U130" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V130" s="7" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W130" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> --Undaunted Infiltrator / Unerschrockener Infiltrator</v>
       </c>
       <c r="X130" s="7" t="str">
@@ -15680,15 +16177,19 @@
         <v>105</v>
       </c>
       <c r="T131" s="7" t="str">
-        <f t="shared" ref="T131:T194" si="6">CONCATENATE("[",A131,"] = {wayshrines={",H131,",",I131,",",J131,"}")&amp;IF(VALUE(K131)&gt;0,CONCATENATE(", traitsNeeded=",K131),"")&amp;CONCATENATE(", dlcId=",O131,)</f>
+        <f t="shared" ref="T131:T194" si="9">CONCATENATE("[",A131,"] = {wayshrines={",H131,",",I131,",",J131,"}")&amp;IF(VALUE(K131)&gt;0,CONCATENATE(", traitsNeeded=",K131),"")&amp;CONCATENATE(", dlcId=",O131,)</f>
         <v>[157] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U131" s="7" t="str">
-        <f t="shared" ref="U131:U194" si="7">IF(VALUE(L131)&gt;0,CONCATENATE(", zoneIds={",L131),"")&amp;IF(VALUE(M131)&gt;0,CONCATENATE(",",M131),"")&amp;IF(VALUE(N131)&gt;0,CONCATENATE(",",N131),"")&amp;IF(VALUE(L131)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U131:U194" si="10">IF(VALUE(L131)&gt;0,CONCATENATE(", zoneIds={",L131),"")&amp;IF(VALUE(M131)&gt;0,CONCATENATE(",",M131),"")&amp;IF(VALUE(N131)&gt;0,CONCATENATE(",",N131),"")&amp;IF(VALUE(L131)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R131="true",R131="false"), CONCATENATE(", veteran=", R131), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V131" s="7" t="str">
+        <f t="shared" ref="V131:V194" si="11">IF(G131="Trial",", isTrial=true",IF(G131="Arena",", isArena=true", IF(G131="Monster",", isMonster=true",""))) &amp; IF(S131="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W131" s="7" t="str">
-        <f t="shared" ref="W131:W194" si="8">CONCATENATE(" --",C131," / ",B131)</f>
+        <f t="shared" ref="W131:W194" si="12">CONCATENATE(" --",C131," / ",B131)</f>
         <v xml:space="preserve"> --Undaunted Unweaver / Unerschrockener Entflechter</v>
       </c>
       <c r="X131" s="7" t="str">
@@ -15739,15 +16240,19 @@
         <v>105</v>
       </c>
       <c r="T132" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[158] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U132" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V132" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W132" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Embershield / Glutschild</v>
       </c>
       <c r="X132" s="7" t="str">
@@ -15798,15 +16303,19 @@
         <v>105</v>
       </c>
       <c r="T133" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[159] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U133" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V133" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W133" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Sunderflame / Trennflamme</v>
       </c>
       <c r="X133" s="7" t="str">
@@ -15857,15 +16366,19 @@
         <v>105</v>
       </c>
       <c r="T134" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[160] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U134" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V134" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W134" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Burning Spellweave / Branntzauberweber</v>
       </c>
       <c r="X134" s="7" t="str">
@@ -15916,15 +16429,19 @@
         <v>105</v>
       </c>
       <c r="T135" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[161] = {wayshrines={234,234,234}, traitsNeeded=9, dlcId=0</v>
       </c>
       <c r="U135" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V135" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W135" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Twice-Born Star / Doppelstern</v>
       </c>
       <c r="X135" s="7" t="str">
@@ -15981,15 +16498,19 @@
         <v>105</v>
       </c>
       <c r="T136" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[162] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U136" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={934},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={934}, veteran=false</v>
+      </c>
+      <c r="V136" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W136" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Spawn of Mephala / Mephalas Brut</v>
       </c>
       <c r="X136" s="7" t="str">
@@ -16046,15 +16567,19 @@
         <v>105</v>
       </c>
       <c r="T137" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[163] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U137" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={936},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={936}, veteran=false</v>
+      </c>
+      <c r="V137" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W137" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Blood Spawn / Blutbrut</v>
       </c>
       <c r="X137" s="7" t="str">
@@ -16111,15 +16636,19 @@
         <v>105</v>
       </c>
       <c r="T138" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[164] = {wayshrines={-1,-1,-1}, dlcId=1</v>
       </c>
       <c r="U138" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={678},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={678}, veteran=false</v>
+      </c>
+      <c r="V138" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W138" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Lord Warden / Hochwärter</v>
       </c>
       <c r="X138" s="7" t="str">
@@ -16176,15 +16705,19 @@
         <v>105</v>
       </c>
       <c r="T139" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[165] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U139" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={933},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={933}, veteran=false</v>
+      </c>
+      <c r="V139" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W139" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Scourge Harvester / Geißelernter</v>
       </c>
       <c r="X139" s="7" t="str">
@@ -16241,15 +16774,19 @@
         <v>105</v>
       </c>
       <c r="T140" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[166] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U140" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={930},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={930}, veteran=false</v>
+      </c>
+      <c r="V140" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W140" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Engine Guardian / Maschinenwächter</v>
       </c>
       <c r="X140" s="7" t="str">
@@ -16306,15 +16843,19 @@
         <v>105</v>
       </c>
       <c r="T141" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[167] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U141" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={931},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={931}, veteran=false</v>
+      </c>
+      <c r="V141" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W141" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Nightflame / Nachtflamme</v>
       </c>
       <c r="X141" s="7" t="str">
@@ -16371,15 +16912,19 @@
         <v>105</v>
       </c>
       <c r="T142" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[168] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U142" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={932},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={932}, veteran=false</v>
+      </c>
+      <c r="V142" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W142" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Nerien'eth / Nerien'eth</v>
       </c>
       <c r="X142" s="7" t="str">
@@ -16436,15 +16981,19 @@
         <v>105</v>
       </c>
       <c r="T143" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[169] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U143" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={681},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={681}, veteran=false</v>
+      </c>
+      <c r="V143" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W143" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Valkyn Skoria / Valkyn Skoria</v>
       </c>
       <c r="X143" s="7" t="str">
@@ -16501,15 +17050,19 @@
         <v>105</v>
       </c>
       <c r="T144" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[170] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U144" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={935},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={935}, veteran=false</v>
+      </c>
+      <c r="V144" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W144" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Maw of the Infernal / Schlund des Infernalen</v>
       </c>
       <c r="X144" s="7" t="str">
@@ -16532,7 +17085,7 @@
       </c>
       <c r="G145" t="str">
         <f t="array" ref="G145">IF(VALUE(K145)&gt;0,"Crafted",IF(OR(EXACT(A145,'LibSets constants'!$G$2:$G$99)),"Monster",IF(OR(EXACT(A145,'LibSets constants'!$I$2:$I$99)),"Trial",IF(OR(EXACT(A145,'LibSets constants'!$K$2:$K$99)),"Arena",IF(OR(EXACT(A145,'LibSets constants'!$M$2:$M$99)),"Overland","")))))</f>
-        <v/>
+        <v>Trial</v>
       </c>
       <c r="H145">
         <v>-1</v>
@@ -16560,18 +17113,22 @@
         <v>105</v>
       </c>
       <c r="S145" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T145" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[171] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U145" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={688},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={688}, veteran=false</v>
+      </c>
+      <c r="V145" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isTrial=true, multiTrialSet=true</v>
       </c>
       <c r="W145" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Eternal Warrior / Ewiger Krieger</v>
       </c>
       <c r="X145" s="7" t="str">
@@ -16625,15 +17182,19 @@
         <v>105</v>
       </c>
       <c r="T146" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[172] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U146" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={843},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={843}, veteran=false</v>
+      </c>
+      <c r="V146" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W146" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Infallible Mage / Unfehlbare Magierin</v>
       </c>
       <c r="X146" s="7" t="str">
@@ -16687,15 +17248,19 @@
         <v>105</v>
       </c>
       <c r="T147" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[173] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U147" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={848},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={848}, veteran=false</v>
+      </c>
+      <c r="V147" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W147" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Vicious Serpent / Boshafte Schlange</v>
       </c>
       <c r="X147" s="7" t="str">
@@ -16746,15 +17311,19 @@
         <v>105</v>
       </c>
       <c r="T148" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[176] = {wayshrines={199,201,203}, traitsNeeded=7, dlcId=1</v>
       </c>
       <c r="U148" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V148" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W148" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Noble's Conquest / Adelssieg</v>
       </c>
       <c r="X148" s="7" t="str">
@@ -16808,15 +17377,19 @@
         <v>105</v>
       </c>
       <c r="T149" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[177] = {wayshrines={199,201,203}, traitsNeeded=5, dlcId=2</v>
       </c>
       <c r="U149" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={380},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={380}, veteran=false</v>
+      </c>
+      <c r="V149" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W149" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Redistributor / Umverteilung</v>
       </c>
       <c r="X149" s="7" t="str">
@@ -16870,15 +17443,19 @@
         <v>105</v>
       </c>
       <c r="T150" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[178] = {wayshrines={199,201,203}, traitsNeeded=9, dlcId=1</v>
       </c>
       <c r="U150" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={283},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={283}, veteran=false</v>
+      </c>
+      <c r="V150" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W150" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Armor Master / Rüstungsmeister</v>
       </c>
       <c r="X150" s="7" t="str">
@@ -16932,15 +17509,19 @@
         <v>105</v>
       </c>
       <c r="T151" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[179] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U151" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={144},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={144}, veteran=false</v>
+      </c>
+      <c r="V151" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W151" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Black Rose / Schwarze Rose</v>
       </c>
       <c r="X151" s="7" t="str">
@@ -16994,15 +17575,19 @@
         <v>105</v>
       </c>
       <c r="T152" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[180] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U152" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={63},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={63}, veteran=false</v>
+      </c>
+      <c r="V152" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W152" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Powerful Assault / Kraftvoller Ansturm</v>
       </c>
       <c r="X152" s="7" t="str">
@@ -17056,15 +17641,19 @@
         <v>105</v>
       </c>
       <c r="T153" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[181] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U153" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={126},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={126}, veteran=false</v>
+      </c>
+      <c r="V153" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W153" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Meritorious Service / Meritorischer Dienst</v>
       </c>
       <c r="X153" s="7" t="str">
@@ -17121,15 +17710,19 @@
         <v>105</v>
       </c>
       <c r="T154" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[183] = {wayshrines={-1,-1,-1}, dlcId=1</v>
       </c>
       <c r="U154" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={688},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={688}, veteran=false</v>
+      </c>
+      <c r="V154" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W154" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Molag Kena / Molag Kena</v>
       </c>
       <c r="X154" s="7" t="str">
@@ -17183,15 +17776,19 @@
         <v>105</v>
       </c>
       <c r="T155" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[184] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U155" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={843},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={843}, veteran=false</v>
+      </c>
+      <c r="V155" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W155" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Brands of Imperium / Male des Kaiserreichs</v>
       </c>
       <c r="X155" s="7" t="str">
@@ -17245,15 +17842,19 @@
         <v>105</v>
       </c>
       <c r="T156" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[185] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U156" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={848},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={848}, veteran=false</v>
+      </c>
+      <c r="V156" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W156" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Spell Power Cure / Magiekraftheilung</v>
       </c>
       <c r="X156" s="7" t="str">
@@ -17307,15 +17908,19 @@
         <v>105</v>
       </c>
       <c r="T157" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[186] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U157" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={130},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={130}, veteran=false</v>
+      </c>
+      <c r="V157" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W157" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Jolting Arms / Rüttelnde Rüstung</v>
       </c>
       <c r="X157" s="7" t="str">
@@ -17369,15 +17974,19 @@
         <v>105</v>
       </c>
       <c r="T158" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[187] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U158" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={449},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={449}, veteran=false</v>
+      </c>
+      <c r="V158" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W158" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Swamp Raider / Sumpfräuber</v>
       </c>
       <c r="X158" s="7" t="str">
@@ -17431,15 +18040,19 @@
         <v>105</v>
       </c>
       <c r="T159" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[188] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U159" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={131},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={131}, veteran=false</v>
+      </c>
+      <c r="V159" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W159" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Storm Master / Sturmmeister</v>
       </c>
       <c r="X159" s="7" t="str">
@@ -17493,15 +18106,19 @@
         <v>105</v>
       </c>
       <c r="T160" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[190] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U160" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={22},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={22}, veteran=false</v>
+      </c>
+      <c r="V160" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W160" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Scathing Mage / Verletzender Magier</v>
       </c>
       <c r="X160" s="7" t="str">
@@ -17555,15 +18172,19 @@
         <v>105</v>
       </c>
       <c r="T161" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[193] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U161" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={38},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={38}, veteran=false</v>
+      </c>
+      <c r="V161" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W161" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Overwhelming Surge / Überwältigende Woge</v>
       </c>
       <c r="X161" s="7" t="str">
@@ -17617,15 +18238,19 @@
         <v>105</v>
       </c>
       <c r="T162" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[194] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U162" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={64},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={64}, veteran=false</v>
+      </c>
+      <c r="V162" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W162" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Combat Physician / Feldarzt</v>
       </c>
       <c r="X162" s="7" t="str">
@@ -17679,15 +18304,19 @@
         <v>105</v>
       </c>
       <c r="T163" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[195] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U163" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={31},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={31}, veteran=false</v>
+      </c>
+      <c r="V163" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W163" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Sheer Venom / Reingift</v>
       </c>
       <c r="X163" s="7" t="str">
@@ -17741,15 +18370,19 @@
         <v>105</v>
       </c>
       <c r="T164" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[196] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U164" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={11},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={11}, veteran=false</v>
+      </c>
+      <c r="V164" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W164" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Leeching Plate / Auslaugende Rüstung</v>
       </c>
       <c r="X164" s="7" t="str">
@@ -17803,15 +18436,19 @@
         <v>105</v>
       </c>
       <c r="T165" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[197] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U165" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={973},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={973}, veteran=false</v>
+      </c>
+      <c r="V165" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W165" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Tormentor / Quälender</v>
       </c>
       <c r="X165" s="7" t="str">
@@ -17865,15 +18502,19 @@
         <v>105</v>
       </c>
       <c r="T166" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[198] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U166" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={974},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={974}, veteran=false</v>
+      </c>
+      <c r="V166" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W166" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Essence Thief / Essenzdieb</v>
       </c>
       <c r="X166" s="7" t="str">
@@ -17927,15 +18568,19 @@
         <v>105</v>
       </c>
       <c r="T167" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[199] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U167" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1009},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1009}, veteran=false</v>
+      </c>
+      <c r="V167" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W167" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Shield Breaker / Schildbrecher</v>
       </c>
       <c r="X167" s="7" t="str">
@@ -17989,15 +18634,19 @@
         <v>105</v>
       </c>
       <c r="T168" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[200] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U168" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1010},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1010}, veteran=false</v>
+      </c>
+      <c r="V168" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W168" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Phoenix / Phönix</v>
       </c>
       <c r="X168" s="7" t="str">
@@ -18051,15 +18700,19 @@
         <v>105</v>
       </c>
       <c r="T169" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[201] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U169" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1055},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1055}, veteran=false</v>
+      </c>
+      <c r="V169" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W169" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Reactive Armor / Reaktive Rüstung</v>
       </c>
       <c r="X169" s="7" t="str">
@@ -18113,15 +18766,19 @@
         <v>105</v>
       </c>
       <c r="T170" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[204] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U170" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1052},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1052}, veteran=false</v>
+      </c>
+      <c r="V170" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W170" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Endurance / Beständigkeit</v>
       </c>
       <c r="X170" s="7" t="str">
@@ -18175,15 +18832,19 @@
         <v>105</v>
       </c>
       <c r="T171" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[205] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U171" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1080},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1080}, veteran=false</v>
+      </c>
+      <c r="V171" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W171" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Willpower / Willenskraft</v>
       </c>
       <c r="X171" s="7" t="str">
@@ -18237,15 +18898,19 @@
         <v>105</v>
       </c>
       <c r="T172" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[206] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U172" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>, zoneIds={1081},</v>
+        <f t="shared" si="10"/>
+        <v>, zoneIds={1081}, veteran=false</v>
+      </c>
+      <c r="V172" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="W172" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Agility / Agilität</v>
       </c>
       <c r="X172" s="7" t="str">
@@ -18296,15 +18961,19 @@
         <v>105</v>
       </c>
       <c r="T173" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[207] = {wayshrines={241,241,241}, traitsNeeded=6, dlcId=2</v>
       </c>
       <c r="U173" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V173" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W173" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Law of Julianos / Gesetz von Julianos</v>
       </c>
       <c r="X173" s="7" t="str">
@@ -18355,15 +19024,19 @@
         <v>105</v>
       </c>
       <c r="T174" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[208] = {wayshrines={237,237,237}, traitsNeeded=3, dlcId=2</v>
       </c>
       <c r="U174" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V174" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W174" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Trial by Fire / Feuertaufe</v>
       </c>
       <c r="X174" s="7" t="str">
@@ -18414,15 +19087,19 @@
         <v>105</v>
       </c>
       <c r="T175" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[209] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U175" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V175" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W175" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Armor of the Code / Armor of the Code</v>
       </c>
       <c r="X175" s="7" t="str">
@@ -18473,15 +19150,19 @@
         <v>105</v>
       </c>
       <c r="T176" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[210] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U176" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V176" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W176" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Mark of the Pariah / Zeichen des Ausgestoßenen</v>
       </c>
       <c r="X176" s="7" t="str">
@@ -18532,15 +19213,19 @@
         <v>105</v>
       </c>
       <c r="T177" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[211] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U177" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V177" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W177" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Permafrost / Permafrost</v>
       </c>
       <c r="X177" s="7" t="str">
@@ -18591,15 +19276,19 @@
         <v>105</v>
       </c>
       <c r="T178" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[212] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U178" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V178" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W178" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Briarheart / Dornenherz</v>
       </c>
       <c r="X178" s="7" t="str">
@@ -18650,15 +19339,19 @@
         <v>105</v>
       </c>
       <c r="T179" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[213] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U179" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V179" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W179" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Glorious Defender / Ruhmreicher Verteidiger</v>
       </c>
       <c r="X179" s="7" t="str">
@@ -18709,15 +19402,19 @@
         <v>105</v>
       </c>
       <c r="T180" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[214] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U180" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V180" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W180" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Para Bellum / Para Bellum</v>
       </c>
       <c r="X180" s="7" t="str">
@@ -18768,15 +19465,19 @@
         <v>105</v>
       </c>
       <c r="T181" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[215] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U181" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V181" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W181" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Elemental Succession / Elementarfolge</v>
       </c>
       <c r="X181" s="7" t="str">
@@ -18827,15 +19528,19 @@
         <v>105</v>
       </c>
       <c r="T182" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[216] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U182" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V182" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W182" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Hunt Leader / Jagdleiter</v>
       </c>
       <c r="X182" s="7" t="str">
@@ -18886,15 +19591,19 @@
         <v>105</v>
       </c>
       <c r="T183" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[217] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U183" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V183" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W183" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Winterborn / Winterkind</v>
       </c>
       <c r="X183" s="7" t="str">
@@ -18945,15 +19654,19 @@
         <v>105</v>
       </c>
       <c r="T184" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[218] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U184" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V184" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W184" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Trinimac's Valor / Trinimacs Heldenmut</v>
       </c>
       <c r="X184" s="7" t="str">
@@ -19004,15 +19717,19 @@
         <v>105</v>
       </c>
       <c r="T185" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[219] = {wayshrines={237,237,237}, traitsNeeded=9, dlcId=2</v>
       </c>
       <c r="U185" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V185" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W185" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Morkuldin / Morkuldin</v>
       </c>
       <c r="X185" s="7" t="str">
@@ -19063,15 +19780,19 @@
         <v>105</v>
       </c>
       <c r="T186" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[224] = {wayshrines={257,257,257}, traitsNeeded=5, dlcId=3</v>
       </c>
       <c r="U186" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V186" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W186" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Tava's Favor / Tavas Gunst</v>
       </c>
       <c r="X186" s="7" t="str">
@@ -19122,15 +19843,19 @@
         <v>105</v>
       </c>
       <c r="T187" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[225] = {wayshrines={257,257,257}, traitsNeeded=7, dlcId=3</v>
       </c>
       <c r="U187" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V187" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W187" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Clever Alchemist / Schlauer Alchemist</v>
       </c>
       <c r="X187" s="7" t="str">
@@ -19181,15 +19906,19 @@
         <v>105</v>
       </c>
       <c r="T188" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[226] = {wayshrines={255,255,255}, traitsNeeded=9, dlcId=3</v>
       </c>
       <c r="U188" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V188" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W188" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Eternal Hunt / Ewige Jagd</v>
       </c>
       <c r="X188" s="7" t="str">
@@ -19240,15 +19969,19 @@
         <v>105</v>
       </c>
       <c r="T189" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[227] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U189" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V189" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W189" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Bahraha's Curse / Bahrahas Fluch</v>
       </c>
       <c r="X189" s="7" t="str">
@@ -19299,15 +20032,19 @@
         <v>105</v>
       </c>
       <c r="T190" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[228] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U190" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V190" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W190" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Syvarra's Scales / Syvarras Schuppen</v>
       </c>
       <c r="X190" s="7" t="str">
@@ -19358,15 +20095,19 @@
         <v>105</v>
       </c>
       <c r="T191" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[229] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U191" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V191" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W191" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Twilight Remedy / Zwielichtgenesung</v>
       </c>
       <c r="X191" s="7" t="str">
@@ -19417,15 +20158,19 @@
         <v>105</v>
       </c>
       <c r="T192" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[230] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U192" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V192" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W192" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Moondancer / Mondtänzer</v>
       </c>
       <c r="X192" s="7" t="str">
@@ -19476,15 +20221,19 @@
         <v>105</v>
       </c>
       <c r="T193" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[231] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U193" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V193" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W193" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Lunar Bastion / Mondbastion</v>
       </c>
       <c r="X193" s="7" t="str">
@@ -19535,15 +20284,19 @@
         <v>105</v>
       </c>
       <c r="T194" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>[232] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U194" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V194" s="7" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W194" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> --Roar of Alkosh / Brüllen von Alkosh</v>
       </c>
       <c r="X194" s="7" t="str">
@@ -19594,15 +20347,19 @@
         <v>105</v>
       </c>
       <c r="T195" s="7" t="str">
-        <f t="shared" ref="T195:T258" si="9">CONCATENATE("[",A195,"] = {wayshrines={",H195,",",I195,",",J195,"}")&amp;IF(VALUE(K195)&gt;0,CONCATENATE(", traitsNeeded=",K195),"")&amp;CONCATENATE(", dlcId=",O195,)</f>
+        <f t="shared" ref="T195:T258" si="13">CONCATENATE("[",A195,"] = {wayshrines={",H195,",",I195,",",J195,"}")&amp;IF(VALUE(K195)&gt;0,CONCATENATE(", traitsNeeded=",K195),"")&amp;CONCATENATE(", dlcId=",O195,)</f>
         <v>[234] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U195" s="7" t="str">
-        <f t="shared" ref="U195:U258" si="10">IF(VALUE(L195)&gt;0,CONCATENATE(", zoneIds={",L195),"")&amp;IF(VALUE(M195)&gt;0,CONCATENATE(",",M195),"")&amp;IF(VALUE(N195)&gt;0,CONCATENATE(",",N195),"")&amp;IF(VALUE(L195)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U195:U258" si="14">IF(VALUE(L195)&gt;0,CONCATENATE(", zoneIds={",L195),"")&amp;IF(VALUE(M195)&gt;0,CONCATENATE(",",M195),"")&amp;IF(VALUE(N195)&gt;0,CONCATENATE(",",N195),"")&amp;IF(VALUE(L195)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R195="true",R195="false"), CONCATENATE(", veteran=", R195), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V195" s="7" t="str">
+        <f t="shared" ref="V195:V258" si="15">IF(G195="Trial",", isTrial=true",IF(G195="Arena",", isArena=true", IF(G195="Monster",", isMonster=true",""))) &amp; IF(S195="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W195" s="7" t="str">
-        <f t="shared" ref="W195:W258" si="11">CONCATENATE(" --",C195," / ",B195)</f>
+        <f t="shared" ref="W195:W258" si="16">CONCATENATE(" --",C195," / ",B195)</f>
         <v xml:space="preserve"> --Marksman's Crest / Wappen des Meisterschützen</v>
       </c>
       <c r="X195" s="7" t="str">
@@ -19653,15 +20410,19 @@
         <v>105</v>
       </c>
       <c r="T196" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[235] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U196" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V196" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W196" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Robes of Transmutation / Roben der Transmutation</v>
       </c>
       <c r="X196" s="7" t="str">
@@ -19712,15 +20473,19 @@
         <v>105</v>
       </c>
       <c r="T197" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[236] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U197" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V197" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W197" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Vicious Death / Grausamer Tod</v>
       </c>
       <c r="X197" s="7" t="str">
@@ -19771,15 +20536,19 @@
         <v>105</v>
       </c>
       <c r="T198" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[237] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U198" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V198" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W198" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Leki's Focus / Lekis Fokus</v>
       </c>
       <c r="X198" s="7" t="str">
@@ -19830,15 +20599,19 @@
         <v>105</v>
       </c>
       <c r="T199" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[238] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U199" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V199" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W199" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Fasalla's Guile / Fasallas List</v>
       </c>
       <c r="X199" s="7" t="str">
@@ -19889,15 +20662,19 @@
         <v>105</v>
       </c>
       <c r="T200" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[239] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U200" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V200" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W200" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Warrior's Fury / Raserei des Kriegers</v>
       </c>
       <c r="X200" s="7" t="str">
@@ -19948,15 +20725,19 @@
         <v>105</v>
       </c>
       <c r="T201" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[240] = {wayshrines={254,254,254}, traitsNeeded=5, dlcId=4</v>
       </c>
       <c r="U201" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V201" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W201" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Kvatch Gladiator / Gladiator von Kvatch</v>
       </c>
       <c r="X201" s="7" t="str">
@@ -20007,15 +20788,19 @@
         <v>105</v>
       </c>
       <c r="T202" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[241] = {wayshrines={251,251,251}, traitsNeeded=7, dlcId=4</v>
       </c>
       <c r="U202" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V202" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W202" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Varen's Legacy / Varens Erbe</v>
       </c>
       <c r="X202" s="7" t="str">
@@ -20066,15 +20851,19 @@
         <v>105</v>
       </c>
       <c r="T203" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[242] = {wayshrines={254,254,254}, traitsNeeded=9, dlcId=4</v>
       </c>
       <c r="U203" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V203" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W203" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Pelinal's Aptitude / Pelinals Talent</v>
       </c>
       <c r="X203" s="7" t="str">
@@ -20125,15 +20914,19 @@
         <v>105</v>
       </c>
       <c r="T204" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[243] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U204" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V204" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W204" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Hide of Morihaus / Haut von Morihaus</v>
       </c>
       <c r="X204" s="7" t="str">
@@ -20184,15 +20977,19 @@
         <v>105</v>
       </c>
       <c r="T205" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[244] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U205" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V205" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W205" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Flanking Strategist / Flankierender Stratege</v>
       </c>
       <c r="X205" s="7" t="str">
@@ -20243,15 +21040,19 @@
         <v>105</v>
       </c>
       <c r="T206" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[245] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U206" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V206" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W206" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Sithis' Touch / Sithis' Berührung</v>
       </c>
       <c r="X206" s="7" t="str">
@@ -20302,15 +21103,19 @@
         <v>105</v>
       </c>
       <c r="T207" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[246] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U207" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V207" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W207" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Galerion's Revenge / Galerions Revanche</v>
       </c>
       <c r="X207" s="7" t="str">
@@ -20361,15 +21166,19 @@
         <v>105</v>
       </c>
       <c r="T208" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[247] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U208" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V208" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W208" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Vicecanon of Venom / Vizekanoniker des Gifts</v>
       </c>
       <c r="X208" s="7" t="str">
@@ -20420,15 +21229,19 @@
         <v>105</v>
       </c>
       <c r="T209" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[248] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U209" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V209" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W209" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Thews of the Harbinger / Muskeln des Vorboten</v>
       </c>
       <c r="X209" s="7" t="str">
@@ -20479,15 +21292,19 @@
         <v>105</v>
       </c>
       <c r="T210" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[253] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U210" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V210" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W210" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Imperial Physique / Kaiserliche Physis</v>
       </c>
       <c r="X210" s="7" t="str">
@@ -20544,15 +21361,19 @@
         <v>105</v>
       </c>
       <c r="T211" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[256] = {wayshrines={-1,-1,-1}, dlcId=5</v>
       </c>
       <c r="U211" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={843},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={843}, veteran=false</v>
+      </c>
+      <c r="V211" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W211" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Mighty Chudan / Mächtiger Chudan</v>
       </c>
       <c r="X211" s="7" t="str">
@@ -20609,15 +21430,19 @@
         <v>105</v>
       </c>
       <c r="T212" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[257] = {wayshrines={-1,-1,-1}, dlcId=5</v>
       </c>
       <c r="U212" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={848},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={848}, veteran=false</v>
+      </c>
+      <c r="V212" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W212" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Velidreth / Velidreth</v>
       </c>
       <c r="X212" s="7" t="str">
@@ -20668,15 +21493,19 @@
         <v>105</v>
       </c>
       <c r="T213" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[258] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U213" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V213" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W213" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Amber Plasm / Bernsteinplasma</v>
       </c>
       <c r="X213" s="7" t="str">
@@ -20727,15 +21556,19 @@
         <v>105</v>
       </c>
       <c r="T214" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[259] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U214" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V214" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W214" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Heem-Jas' Retribution / Heem-Jas' Vergeltung</v>
       </c>
       <c r="X214" s="7" t="str">
@@ -20786,15 +21619,19 @@
         <v>105</v>
       </c>
       <c r="T215" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[260] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U215" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V215" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W215" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Aspect of Mazzatun / Aspekt von Mazzatun</v>
       </c>
       <c r="X215" s="7" t="str">
@@ -20845,15 +21682,19 @@
         <v>105</v>
       </c>
       <c r="T216" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[261] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U216" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V216" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W216" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Gossamer / Gespinst</v>
       </c>
       <c r="X216" s="7" t="str">
@@ -20904,15 +21745,19 @@
         <v>105</v>
       </c>
       <c r="T217" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[262] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U217" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V217" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W217" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Widowmaker / Witwenmacher</v>
       </c>
       <c r="X217" s="7" t="str">
@@ -20963,15 +21808,19 @@
         <v>105</v>
       </c>
       <c r="T218" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[263] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U218" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V218" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W218" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Hand of Mephala / Hand von Mephala</v>
       </c>
       <c r="X218" s="7" t="str">
@@ -21022,15 +21871,19 @@
         <v>105</v>
       </c>
       <c r="T219" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[264] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U219" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V219" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W219" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Giant Spider / Riesenspinne</v>
       </c>
       <c r="X219" s="7" t="str">
@@ -21087,15 +21940,19 @@
         <v>105</v>
       </c>
       <c r="T220" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[265] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U220" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={380},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={380}, veteran=false</v>
+      </c>
+      <c r="V220" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W220" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Shadowrend / Schattenriss</v>
       </c>
       <c r="X220" s="7" t="str">
@@ -21152,15 +22009,19 @@
         <v>105</v>
       </c>
       <c r="T221" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[266] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U221" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={283},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={283}, veteran=false</v>
+      </c>
+      <c r="V221" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W221" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Kra'gh / Kra'gh</v>
       </c>
       <c r="X221" s="7" t="str">
@@ -21217,15 +22078,19 @@
         <v>105</v>
       </c>
       <c r="T222" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[267] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U222" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={144},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={144}, veteran=false</v>
+      </c>
+      <c r="V222" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W222" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Swarm Mother / Schwarmmutter</v>
       </c>
       <c r="X222" s="7" t="str">
@@ -21282,15 +22147,19 @@
         <v>105</v>
       </c>
       <c r="T223" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[268] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U223" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={63},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={63}, veteran=false</v>
+      </c>
+      <c r="V223" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W223" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Sentinel of Rkugamz / Wachposten von Rkugamz</v>
       </c>
       <c r="X223" s="7" t="str">
@@ -21347,15 +22216,19 @@
         <v>105</v>
       </c>
       <c r="T224" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[269] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U224" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={126},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={126}, veteran=false</v>
+      </c>
+      <c r="V224" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W224" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Chokethorn / Würgedorn</v>
       </c>
       <c r="X224" s="7" t="str">
@@ -21412,15 +22285,19 @@
         <v>105</v>
       </c>
       <c r="T225" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[270] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U225" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={146},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={146}, veteran=false</v>
+      </c>
+      <c r="V225" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W225" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Slimecraw / Schleimkropf</v>
       </c>
       <c r="X225" s="7" t="str">
@@ -21477,15 +22354,19 @@
         <v>105</v>
       </c>
       <c r="T226" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[271] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U226" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={148},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={148}, veteran=false</v>
+      </c>
+      <c r="V226" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W226" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Sellistrix / Sellistrix</v>
       </c>
       <c r="X226" s="7" t="str">
@@ -21542,15 +22423,19 @@
         <v>105</v>
       </c>
       <c r="T227" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[272] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U227" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={176},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={176}, veteran=false</v>
+      </c>
+      <c r="V227" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W227" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Infernal Guardian / Infernaler Wächter</v>
       </c>
       <c r="X227" s="7" t="str">
@@ -21607,15 +22492,19 @@
         <v>105</v>
       </c>
       <c r="T228" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[273] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U228" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={130},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={130}, veteran=false</v>
+      </c>
+      <c r="V228" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W228" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Ilambris / Ilambris</v>
       </c>
       <c r="X228" s="7" t="str">
@@ -21672,15 +22561,19 @@
         <v>105</v>
       </c>
       <c r="T229" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[274] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U229" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={449},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={449}, veteran=false</v>
+      </c>
+      <c r="V229" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W229" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Iceheart / Eisherz</v>
       </c>
       <c r="X229" s="7" t="str">
@@ -21737,15 +22630,19 @@
         <v>105</v>
       </c>
       <c r="T230" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[275] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U230" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={131},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={131}, veteran=false</v>
+      </c>
+      <c r="V230" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W230" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Stormfist / Sturmfaust</v>
       </c>
       <c r="X230" s="7" t="str">
@@ -21802,15 +22699,19 @@
         <v>105</v>
       </c>
       <c r="T231" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[276] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U231" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={22},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={22}, veteran=false</v>
+      </c>
+      <c r="V231" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W231" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Tremorscale / Bebenschuppe</v>
       </c>
       <c r="X231" s="7" t="str">
@@ -21867,15 +22768,19 @@
         <v>105</v>
       </c>
       <c r="T232" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[277] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U232" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={38},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={38}, veteran=false</v>
+      </c>
+      <c r="V232" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W232" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Pirate Skeleton / Piratenskelett</v>
       </c>
       <c r="X232" s="7" t="str">
@@ -21932,15 +22837,19 @@
         <v>105</v>
       </c>
       <c r="T233" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[278] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U233" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={64},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={64}, veteran=false</v>
+      </c>
+      <c r="V233" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W233" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --The Troll King / Trollkönig</v>
       </c>
       <c r="X233" s="7" t="str">
@@ -21997,15 +22906,19 @@
         <v>105</v>
       </c>
       <c r="T234" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[279] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U234" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={31},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={31}, veteran=false</v>
+      </c>
+      <c r="V234" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W234" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Selene / Selene</v>
       </c>
       <c r="X234" s="7" t="str">
@@ -22062,15 +22975,19 @@
         <v>105</v>
       </c>
       <c r="T235" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[280] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U235" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>, zoneIds={11},</v>
+        <f t="shared" si="14"/>
+        <v>, zoneIds={11}, veteran=false</v>
+      </c>
+      <c r="V235" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W235" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Grothdarr / Grothdarr</v>
       </c>
       <c r="X235" s="7" t="str">
@@ -22121,15 +23038,19 @@
         <v>105</v>
       </c>
       <c r="T236" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[281] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U236" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V236" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W236" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Armor of the Trainee / Rüstung des Auszubildenden</v>
       </c>
       <c r="X236" s="7" t="str">
@@ -22180,15 +23101,19 @@
         <v>105</v>
       </c>
       <c r="T237" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[282] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U237" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V237" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W237" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Vampire Cloak / Vampirumhang</v>
       </c>
       <c r="X237" s="7" t="str">
@@ -22239,15 +23164,19 @@
         <v>105</v>
       </c>
       <c r="T238" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[283] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U238" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V238" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W238" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Sword-Singer / Schwertsänger</v>
       </c>
       <c r="X238" s="7" t="str">
@@ -22298,15 +23227,19 @@
         <v>105</v>
       </c>
       <c r="T239" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[284] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U239" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V239" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W239" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Order of Diagna / Orden von Diagna</v>
       </c>
       <c r="X239" s="7" t="str">
@@ -22357,15 +23290,19 @@
         <v>105</v>
       </c>
       <c r="T240" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[285] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U240" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V240" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W240" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Vampire Lord / Vampirfürst</v>
       </c>
       <c r="X240" s="7" t="str">
@@ -22416,15 +23353,19 @@
         <v>105</v>
       </c>
       <c r="T241" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[286] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U241" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V241" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W241" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Spriggan's Thorns / Dornen des Zweiglings</v>
       </c>
       <c r="X241" s="7" t="str">
@@ -22475,15 +23416,19 @@
         <v>105</v>
       </c>
       <c r="T242" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[287] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U242" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V242" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W242" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Green Pact / Der Grüne Pakt</v>
       </c>
       <c r="X242" s="7" t="str">
@@ -22534,15 +23479,19 @@
         <v>105</v>
       </c>
       <c r="T243" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[288] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U243" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V243" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W243" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Beekeeper's Gear / Werkzeug des Bienenhüters</v>
       </c>
       <c r="X243" s="7" t="str">
@@ -22593,15 +23542,19 @@
         <v>105</v>
       </c>
       <c r="T244" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[289] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U244" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V244" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W244" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Spinner's Garments / Gewänder des Webers</v>
       </c>
       <c r="X244" s="7" t="str">
@@ -22652,15 +23605,19 @@
         <v>105</v>
       </c>
       <c r="T245" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[290] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U245" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V245" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W245" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Skooma Smuggler / Skoomaschmuggler</v>
       </c>
       <c r="X245" s="7" t="str">
@@ -22711,15 +23668,19 @@
         <v>105</v>
       </c>
       <c r="T246" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[291] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U246" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V246" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W246" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Shalk Exoskeleton / Schröterpanzer</v>
       </c>
       <c r="X246" s="7" t="str">
@@ -22770,15 +23731,19 @@
         <v>105</v>
       </c>
       <c r="T247" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[292] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U247" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V247" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W247" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Mother's Sorrow / Muttertränen</v>
       </c>
       <c r="X247" s="7" t="str">
@@ -22829,15 +23794,19 @@
         <v>105</v>
       </c>
       <c r="T248" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[293] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U248" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V248" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W248" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Plague Doctor / Seuchendoktor</v>
       </c>
       <c r="X248" s="7" t="str">
@@ -22888,15 +23857,19 @@
         <v>105</v>
       </c>
       <c r="T249" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[294] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U249" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V249" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W249" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Ysgramor's Birthright / Ysgramors Geburtsrecht</v>
       </c>
       <c r="X249" s="7" t="str">
@@ -22947,15 +23920,19 @@
         <v>105</v>
       </c>
       <c r="T250" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[295] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U250" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V250" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W250" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Jailbreaker / Ausbrecher</v>
       </c>
       <c r="X250" s="7" t="str">
@@ -23006,15 +23983,19 @@
         <v>105</v>
       </c>
       <c r="T251" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[296] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U251" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V251" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W251" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Spelunker / Höhlenforscher</v>
       </c>
       <c r="X251" s="7" t="str">
@@ -23065,15 +24046,19 @@
         <v>105</v>
       </c>
       <c r="T252" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[297] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U252" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V252" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W252" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Spider Cultist Cowl / Spinnenkultistenkutte</v>
       </c>
       <c r="X252" s="7" t="str">
@@ -23124,15 +24109,19 @@
         <v>105</v>
       </c>
       <c r="T253" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[298] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U253" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V253" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W253" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Light Speaker / Lichtsprecher</v>
       </c>
       <c r="X253" s="7" t="str">
@@ -23183,15 +24172,19 @@
         <v>105</v>
       </c>
       <c r="T254" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[299] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U254" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V254" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W254" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Toothrow / Zahnreihe</v>
       </c>
       <c r="X254" s="7" t="str">
@@ -23242,15 +24235,19 @@
         <v>105</v>
       </c>
       <c r="T255" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[300] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U255" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V255" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W255" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Netch's Touch / Berührung des Netch</v>
       </c>
       <c r="X255" s="7" t="str">
@@ -23301,15 +24298,19 @@
         <v>105</v>
       </c>
       <c r="T256" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[301] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U256" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V256" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W256" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Strength of the Automaton / Stärke des Automaten</v>
       </c>
       <c r="X256" s="7" t="str">
@@ -23360,15 +24361,19 @@
         <v>105</v>
       </c>
       <c r="T257" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[302] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U257" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V257" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W257" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Leviathan / Leviathan</v>
       </c>
       <c r="X257" s="7" t="str">
@@ -23419,15 +24424,19 @@
         <v>105</v>
       </c>
       <c r="T258" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>[303] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U258" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V258" s="7" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W258" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> --Lamia's Song / Lied der Lamie</v>
       </c>
       <c r="X258" s="7" t="str">
@@ -23478,15 +24487,19 @@
         <v>105</v>
       </c>
       <c r="T259" s="7" t="str">
-        <f t="shared" ref="T259:T322" si="12">CONCATENATE("[",A259,"] = {wayshrines={",H259,",",I259,",",J259,"}")&amp;IF(VALUE(K259)&gt;0,CONCATENATE(", traitsNeeded=",K259),"")&amp;CONCATENATE(", dlcId=",O259,)</f>
+        <f t="shared" ref="T259:T322" si="17">CONCATENATE("[",A259,"] = {wayshrines={",H259,",",I259,",",J259,"}")&amp;IF(VALUE(K259)&gt;0,CONCATENATE(", traitsNeeded=",K259),"")&amp;CONCATENATE(", dlcId=",O259,)</f>
         <v>[304] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U259" s="7" t="str">
-        <f t="shared" ref="U259:U322" si="13">IF(VALUE(L259)&gt;0,CONCATENATE(", zoneIds={",L259),"")&amp;IF(VALUE(M259)&gt;0,CONCATENATE(",",M259),"")&amp;IF(VALUE(N259)&gt;0,CONCATENATE(",",N259),"")&amp;IF(VALUE(L259)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U259:U322" si="18">IF(VALUE(L259)&gt;0,CONCATENATE(", zoneIds={",L259),"")&amp;IF(VALUE(M259)&gt;0,CONCATENATE(",",M259),"")&amp;IF(VALUE(N259)&gt;0,CONCATENATE(",",N259),"")&amp;IF(VALUE(L259)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R259="true",R259="false"), CONCATENATE(", veteran=", R259), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V259" s="7" t="str">
+        <f t="shared" ref="V259:V322" si="19">IF(G259="Trial",", isTrial=true",IF(G259="Arena",", isArena=true", IF(G259="Monster",", isMonster=true",""))) &amp; IF(S259="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W259" s="7" t="str">
-        <f t="shared" ref="W259:W322" si="14">CONCATENATE(" --",C259," / ",B259)</f>
+        <f t="shared" ref="W259:W322" si="20">CONCATENATE(" --",C259," / ",B259)</f>
         <v xml:space="preserve"> --Medusa / Versteinernder Blick</v>
       </c>
       <c r="X259" s="7" t="str">
@@ -23537,15 +24550,19 @@
         <v>105</v>
       </c>
       <c r="T260" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[305] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U260" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V260" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W260" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Treasure Hunter / Schatzjäger</v>
       </c>
       <c r="X260" s="7" t="str">
@@ -23596,15 +24613,19 @@
         <v>105</v>
       </c>
       <c r="T261" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[307] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U261" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V261" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W261" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Draugr Hulk / Schwerfälliger Draugr</v>
       </c>
       <c r="X261" s="7" t="str">
@@ -23655,15 +24676,19 @@
         <v>105</v>
       </c>
       <c r="T262" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[308] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U262" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V262" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W262" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Bone Pirate's Tatters / Lumpen des Knochenpiraten</v>
       </c>
       <c r="X262" s="7" t="str">
@@ -23714,15 +24739,19 @@
         <v>105</v>
       </c>
       <c r="T263" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[309] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U263" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V263" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W263" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Knight-errant's Mail / Platten des Wanderritters</v>
       </c>
       <c r="X263" s="7" t="str">
@@ -23773,15 +24802,19 @@
         <v>105</v>
       </c>
       <c r="T264" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[310] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U264" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V264" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W264" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Sword Dancer / Schwerttänzer</v>
       </c>
       <c r="X264" s="7" t="str">
@@ -23832,15 +24865,19 @@
         <v>105</v>
       </c>
       <c r="T265" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[311] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U265" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V265" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W265" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Rattlecage / Klapperkäfig</v>
       </c>
       <c r="X265" s="7" t="str">
@@ -23891,15 +24928,19 @@
         <v>105</v>
       </c>
       <c r="T266" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[313] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U266" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V266" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W266" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Titanic Cleave / Titanisches Trennen</v>
       </c>
       <c r="X266" s="7" t="str">
@@ -23950,15 +24991,19 @@
         <v>105</v>
       </c>
       <c r="T267" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[314] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U267" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V267" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W267" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Puncturing Remedy / Durchschlagende Genesung</v>
       </c>
       <c r="X267" s="7" t="str">
@@ -24009,15 +25054,19 @@
         <v>105</v>
       </c>
       <c r="T268" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[315] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U268" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V268" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W268" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Stinging Slashes / Stechende Schnitte</v>
       </c>
       <c r="X268" s="7" t="str">
@@ -24068,15 +25117,19 @@
         <v>105</v>
       </c>
       <c r="T269" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[316] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U269" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V269" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W269" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Caustic Arrow / Beißender Pfeil</v>
       </c>
       <c r="X269" s="7" t="str">
@@ -24127,15 +25180,19 @@
         <v>105</v>
       </c>
       <c r="T270" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[317] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U270" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V270" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W270" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Destructive Impact / Zerstörerischer Einschlag</v>
       </c>
       <c r="X270" s="7" t="str">
@@ -24186,15 +25243,19 @@
         <v>105</v>
       </c>
       <c r="T271" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[318] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U271" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V271" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W271" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Grand Rejuvenation / Große Verjüngung</v>
       </c>
       <c r="X271" s="7" t="str">
@@ -24245,15 +25306,19 @@
         <v>105</v>
       </c>
       <c r="T272" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[320] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U272" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V272" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W272" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --War Maiden / Kriegsjungfer</v>
       </c>
       <c r="X272" s="7" t="str">
@@ -24304,15 +25369,19 @@
         <v>105</v>
       </c>
       <c r="T273" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[321] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U273" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V273" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W273" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Defiler / Schänder</v>
       </c>
       <c r="X273" s="7" t="str">
@@ -24363,15 +25432,19 @@
         <v>105</v>
       </c>
       <c r="T274" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[322] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U274" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V274" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W274" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Warrior-Poet / Kriegerpoet</v>
       </c>
       <c r="X274" s="7" t="str">
@@ -24422,15 +25495,19 @@
         <v>105</v>
       </c>
       <c r="T275" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[323] = {wayshrines={276,276,276}, traitsNeeded=3, dlcId=6</v>
       </c>
       <c r="U275" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V275" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W275" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Assassin's Guile / Assassinenlist</v>
       </c>
       <c r="X275" s="7" t="str">
@@ -24481,15 +25558,19 @@
         <v>105</v>
       </c>
       <c r="T276" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[324] = {wayshrines={329,329,329}, traitsNeeded=8, dlcId=6</v>
       </c>
       <c r="U276" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V276" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W276" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Daedric Trickery / Daedrische Gaunerei</v>
       </c>
       <c r="X276" s="7" t="str">
@@ -24540,15 +25621,19 @@
         <v>105</v>
       </c>
       <c r="T277" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[325] = {wayshrines={282,282,282}, traitsNeeded=6, dlcId=6</v>
       </c>
       <c r="U277" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V277" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W277" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Shacklebreaker / Kettensprenger</v>
       </c>
       <c r="X277" s="7" t="str">
@@ -24599,15 +25684,19 @@
         <v>105</v>
       </c>
       <c r="T278" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[326] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U278" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V278" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W278" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Vanguard's Challenge / Vorhutdisput</v>
       </c>
       <c r="X278" s="7" t="str">
@@ -24658,15 +25747,19 @@
         <v>105</v>
       </c>
       <c r="T279" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[327] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U279" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V279" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W279" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Coward's Gear / Feiglingstracht</v>
       </c>
       <c r="X279" s="7" t="str">
@@ -24717,15 +25810,19 @@
         <v>105</v>
       </c>
       <c r="T280" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[328] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U280" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V280" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W280" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Knight Slayer / Ritterschlächter</v>
       </c>
       <c r="X280" s="7" t="str">
@@ -24776,15 +25873,19 @@
         <v>105</v>
       </c>
       <c r="T281" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[329] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U281" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V281" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W281" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Wizard's Riposte / Zaubererreplik</v>
       </c>
       <c r="X281" s="7" t="str">
@@ -24835,15 +25936,19 @@
         <v>105</v>
       </c>
       <c r="T282" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[330] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U282" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V282" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W282" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Automated Defense / Automatisierte Verteidigung</v>
       </c>
       <c r="X282" s="7" t="str">
@@ -24894,15 +25999,19 @@
         <v>105</v>
       </c>
       <c r="T283" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[331] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U283" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V283" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W283" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --War Machine / Kriegsmaschine</v>
       </c>
       <c r="X283" s="7" t="str">
@@ -24953,15 +26062,19 @@
         <v>105</v>
       </c>
       <c r="T284" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[332] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U284" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V284" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W284" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Master Architect / Meisterarchitekt</v>
       </c>
       <c r="X284" s="7" t="str">
@@ -25012,15 +26125,19 @@
         <v>105</v>
       </c>
       <c r="T285" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[333] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U285" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V285" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W285" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Inventor's Guard / Erfindergarde</v>
       </c>
       <c r="X285" s="7" t="str">
@@ -25071,15 +26188,19 @@
         <v>105</v>
       </c>
       <c r="T286" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[334] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U286" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V286" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W286" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Impregnable Armor / Unüberwindliche Rüstung</v>
       </c>
       <c r="X286" s="7" t="str">
@@ -25130,15 +26251,19 @@
         <v>105</v>
       </c>
       <c r="T287" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[335] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U287" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V287" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W287" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Draugr's Rest / Draugrruhe</v>
       </c>
       <c r="X287" s="7" t="str">
@@ -25189,15 +26314,19 @@
         <v>105</v>
       </c>
       <c r="T288" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[336] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U288" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V288" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W288" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Pillar of Nirn / Säulen von Nirn</v>
       </c>
       <c r="X288" s="7" t="str">
@@ -25248,15 +26377,19 @@
         <v>105</v>
       </c>
       <c r="T289" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[337] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U289" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V289" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W289" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Ironblood / Eisenblut</v>
       </c>
       <c r="X289" s="7" t="str">
@@ -25307,15 +26440,19 @@
         <v>105</v>
       </c>
       <c r="T290" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[338] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U290" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V290" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W290" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Flame Blossom / Flammenblüte</v>
       </c>
       <c r="X290" s="7" t="str">
@@ -25366,15 +26503,19 @@
         <v>105</v>
       </c>
       <c r="T291" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[339] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U291" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V291" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W291" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Blooddrinker / Bluttrinker</v>
       </c>
       <c r="X291" s="7" t="str">
@@ -25425,15 +26566,19 @@
         <v>105</v>
       </c>
       <c r="T292" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[340] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U292" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V292" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W292" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Hagraven's Garden / Vettelgarten</v>
       </c>
       <c r="X292" s="7" t="str">
@@ -25490,15 +26635,19 @@
         <v>105</v>
       </c>
       <c r="T293" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[341] = {wayshrines={-1,-1,-1}, dlcId=7</v>
       </c>
       <c r="U293" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={973},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={973}, veteran=false</v>
+      </c>
+      <c r="V293" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W293" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Earthgore / Erdbluter</v>
       </c>
       <c r="X293" s="7" t="str">
@@ -25555,15 +26704,19 @@
         <v>105</v>
       </c>
       <c r="T294" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[342] = {wayshrines={-1,-1,-1}, dlcId=7</v>
       </c>
       <c r="U294" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={974},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={974}, veteran=false</v>
+      </c>
+      <c r="V294" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W294" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Domihaus / Domihaus</v>
       </c>
       <c r="X294" s="7" t="str">
@@ -25614,15 +26767,19 @@
         <v>105</v>
       </c>
       <c r="T295" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[343] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U295" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V295" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W295" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Caluurion's Legacy / Caluurions Erbe</v>
       </c>
       <c r="X295" s="7" t="str">
@@ -25673,15 +26830,19 @@
         <v>105</v>
       </c>
       <c r="T296" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[344] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U296" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V296" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W296" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Trappings of Invigoration / Stärkungsprunk</v>
       </c>
       <c r="X296" s="7" t="str">
@@ -25732,15 +26893,19 @@
         <v>105</v>
       </c>
       <c r="T297" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[345] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U297" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V297" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W297" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Ulfnor's Favor / Ulfnors Gunst</v>
       </c>
       <c r="X297" s="7" t="str">
@@ -25791,15 +26956,19 @@
         <v>105</v>
       </c>
       <c r="T298" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[346] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U298" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V298" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W298" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Jorvuld's Guidance / Jorvulds Führung</v>
       </c>
       <c r="X298" s="7" t="str">
@@ -25850,15 +27019,19 @@
         <v>105</v>
       </c>
       <c r="T299" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[347] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U299" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V299" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W299" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Plague Slinger / Seuchenschleuder</v>
       </c>
       <c r="X299" s="7" t="str">
@@ -25909,15 +27082,19 @@
         <v>105</v>
       </c>
       <c r="T300" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[348] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U300" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V300" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W300" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Curse of Doylemish / Fluch von Doylemish</v>
       </c>
       <c r="X300" s="7" t="str">
@@ -25974,15 +27151,19 @@
         <v>105</v>
       </c>
       <c r="T301" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[349] = {wayshrines={-1,-1,-1}, dlcId=9</v>
       </c>
       <c r="U301" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1009},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1009}, veteran=false</v>
+      </c>
+      <c r="V301" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W301" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Thurvokun / Thurvokun</v>
       </c>
       <c r="X301" s="7" t="str">
@@ -26039,15 +27220,19 @@
         <v>105</v>
       </c>
       <c r="T302" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[350] = {wayshrines={-1,-1,-1}, dlcId=9</v>
       </c>
       <c r="U302" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1010},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1010}, veteran=false</v>
+      </c>
+      <c r="V302" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W302" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Zaan / Zaan</v>
       </c>
       <c r="X302" s="7" t="str">
@@ -26101,15 +27286,19 @@
         <v>105</v>
       </c>
       <c r="T303" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[351] = {wayshrines={339,339,339}, traitsNeeded=6, dlcId=8</v>
       </c>
       <c r="U303" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1055},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1055}, veteran=false</v>
+      </c>
+      <c r="V303" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="W303" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Innate Axiom / Kernaxiom</v>
       </c>
       <c r="X303" s="7" t="str">
@@ -26163,15 +27352,19 @@
         <v>105</v>
       </c>
       <c r="T304" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[352] = {wayshrines={337,337,337}, traitsNeeded=2, dlcId=8</v>
       </c>
       <c r="U304" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1052},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1052}, veteran=false</v>
+      </c>
+      <c r="V304" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="W304" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Fortified Brass / Messingpanzer</v>
       </c>
       <c r="X304" s="7" t="str">
@@ -26225,15 +27418,19 @@
         <v>105</v>
       </c>
       <c r="T305" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[353] = {wayshrines={338,338,338}, traitsNeeded=4, dlcId=8</v>
       </c>
       <c r="U305" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1080},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1080}, veteran=false</v>
+      </c>
+      <c r="V305" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="W305" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Mechanical Acuity / Mechanikblick</v>
       </c>
       <c r="X305" s="7" t="str">
@@ -26287,15 +27484,19 @@
         <v>105</v>
       </c>
       <c r="T306" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[354] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U306" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>, zoneIds={1081},</v>
+        <f t="shared" si="18"/>
+        <v>, zoneIds={1081}, veteran=false</v>
+      </c>
+      <c r="V306" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="W306" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Mad Tinkerer / Wahntüftler</v>
       </c>
       <c r="X306" s="7" t="str">
@@ -26346,15 +27547,19 @@
         <v>105</v>
       </c>
       <c r="T307" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[355] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U307" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V307" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W307" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Unfathomable Darkness / Unermessliche Dunkelheit</v>
       </c>
       <c r="X307" s="7" t="str">
@@ -26405,15 +27610,19 @@
         <v>105</v>
       </c>
       <c r="T308" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[356] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U308" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V308" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W308" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Livewire / Stromschlag</v>
       </c>
       <c r="X308" s="7" t="str">
@@ -26464,15 +27673,19 @@
         <v>105</v>
       </c>
       <c r="T309" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[357] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U309" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V309" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W309" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Disciplined Slash (Perfected) / Disziplinierter Schnitt (vollendet)</v>
       </c>
       <c r="X309" s="7" t="str">
@@ -26523,15 +27736,19 @@
         <v>105</v>
       </c>
       <c r="T310" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[358] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U310" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V310" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W310" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Defensive Position (Perfected) / Defensive Position (vollendet)</v>
       </c>
       <c r="X310" s="7" t="str">
@@ -26582,15 +27799,19 @@
         <v>105</v>
       </c>
       <c r="T311" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[359] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U311" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V311" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W311" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Chaotic Whirlwind (Perfected) / Chaotischer Wirbelwind (vollendet)</v>
       </c>
       <c r="X311" s="7" t="str">
@@ -26641,15 +27862,19 @@
         <v>105</v>
       </c>
       <c r="T312" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[360] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U312" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V312" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W312" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Piercing Spray (Perfected) / Durchdringende Salve (vollendet)</v>
       </c>
       <c r="X312" s="7" t="str">
@@ -26700,15 +27925,19 @@
         <v>105</v>
       </c>
       <c r="T313" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[361] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U313" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V313" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W313" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Concentrated Force (Perfected) / Konzentrierte Kraft (vollendet)</v>
       </c>
       <c r="X313" s="7" t="str">
@@ -26759,15 +27988,19 @@
         <v>105</v>
       </c>
       <c r="T314" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[362] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U314" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V314" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W314" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Timeless Blessing (Perfected) / Zeitloser Segen (vollendet)</v>
       </c>
       <c r="X314" s="7" t="str">
@@ -26818,15 +28051,19 @@
         <v>105</v>
       </c>
       <c r="T315" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[363] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U315" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V315" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W315" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Disciplined Slash / Disziplinierter Schnitt</v>
       </c>
       <c r="X315" s="7" t="str">
@@ -26877,15 +28114,19 @@
         <v>105</v>
       </c>
       <c r="T316" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[364] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U316" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V316" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W316" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Defensive Position / Defensive Position</v>
       </c>
       <c r="X316" s="7" t="str">
@@ -26936,15 +28177,19 @@
         <v>105</v>
       </c>
       <c r="T317" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[365] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U317" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V317" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W317" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Chaotic Whirlwind / Chaotischer Wirbelwind</v>
       </c>
       <c r="X317" s="7" t="str">
@@ -26995,15 +28240,19 @@
         <v>105</v>
       </c>
       <c r="T318" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[366] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U318" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V318" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W318" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Piercing Spray / Durchdringende Salve</v>
       </c>
       <c r="X318" s="7" t="str">
@@ -27054,15 +28303,19 @@
         <v>105</v>
       </c>
       <c r="T319" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[367] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U319" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V319" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W319" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Concentrated Force / Konzentrierte Kraft</v>
       </c>
       <c r="X319" s="7" t="str">
@@ -27113,15 +28366,19 @@
         <v>105</v>
       </c>
       <c r="T320" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[368] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U320" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V320" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W320" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Timeless Blessing / Zeitloser Segen</v>
       </c>
       <c r="X320" s="7" t="str">
@@ -27172,15 +28429,19 @@
         <v>105</v>
       </c>
       <c r="T321" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[369] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U321" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V321" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W321" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Merciless Charge / Gnadenloser Ansturm</v>
       </c>
       <c r="X321" s="7" t="str">
@@ -27231,15 +28492,19 @@
         <v>105</v>
       </c>
       <c r="T322" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>[370] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U322" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V322" s="7" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W322" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> --Rampaging Slash / Tobender Schnitt</v>
       </c>
       <c r="X322" s="7" t="str">
@@ -27290,15 +28555,19 @@
         <v>105</v>
       </c>
       <c r="T323" s="7" t="str">
-        <f t="shared" ref="T323:T382" si="15">CONCATENATE("[",A323,"] = {wayshrines={",H323,",",I323,",",J323,"}")&amp;IF(VALUE(K323)&gt;0,CONCATENATE(", traitsNeeded=",K323),"")&amp;CONCATENATE(", dlcId=",O323,)</f>
+        <f t="shared" ref="T323:T382" si="21">CONCATENATE("[",A323,"] = {wayshrines={",H323,",",I323,",",J323,"}")&amp;IF(VALUE(K323)&gt;0,CONCATENATE(", traitsNeeded=",K323),"")&amp;CONCATENATE(", dlcId=",O323,)</f>
         <v>[371] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U323" s="7" t="str">
-        <f t="shared" ref="U323:U382" si="16">IF(VALUE(L323)&gt;0,CONCATENATE(", zoneIds={",L323),"")&amp;IF(VALUE(M323)&gt;0,CONCATENATE(",",M323),"")&amp;IF(VALUE(N323)&gt;0,CONCATENATE(",",N323),"")&amp;IF(VALUE(L323)&gt;0,CONCATENATE("},",""),"")</f>
+        <f t="shared" ref="U323:U382" si="22">IF(VALUE(L323)&gt;0,CONCATENATE(", zoneIds={",L323),"")&amp;IF(VALUE(M323)&gt;0,CONCATENATE(",",M323),"")&amp;IF(VALUE(N323)&gt;0,CONCATENATE(",",N323),"")&amp;IF(VALUE(L323)&gt;0,CONCATENATE("}",""),"")&amp;IF(OR(R323="true",R323="false"), CONCATENATE(", veteran=", R323), "")</f>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V323" s="7" t="str">
+        <f t="shared" ref="V323:V382" si="23">IF(G323="Trial",", isTrial=true",IF(G323="Arena",", isArena=true", IF(G323="Monster",", isMonster=true",""))) &amp; IF(S323="true", CONCATENATE(", multiTrialSet=true"), "")</f>
         <v/>
       </c>
       <c r="W323" s="7" t="str">
-        <f t="shared" ref="W323:W382" si="17">CONCATENATE(" --",C323," / ",B323)</f>
+        <f t="shared" ref="W323:W382" si="24">CONCATENATE(" --",C323," / ",B323)</f>
         <v xml:space="preserve"> --Cruel Flurry / Grausamer Schlaghagel</v>
       </c>
       <c r="X323" s="7" t="str">
@@ -27349,15 +28618,19 @@
         <v>105</v>
       </c>
       <c r="T324" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[372] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U324" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V324" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W324" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Thunderous Volley / Donnernde Salve</v>
       </c>
       <c r="X324" s="7" t="str">
@@ -27408,15 +28681,19 @@
         <v>105</v>
       </c>
       <c r="T325" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[373] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U325" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V325" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W325" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Crushing Wall / Zermalmende Mauer</v>
       </c>
       <c r="X325" s="7" t="str">
@@ -27467,15 +28744,19 @@
         <v>105</v>
       </c>
       <c r="T326" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[374] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U326" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V326" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W326" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Precise Regeneration / Präzise Regeneration</v>
       </c>
       <c r="X326" s="7" t="str">
@@ -27526,15 +28807,19 @@
         <v>105</v>
       </c>
       <c r="T327" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[380] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U327" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V327" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W327" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Prophet's / Prophet</v>
       </c>
       <c r="X327" s="7" t="str">
@@ -27585,15 +28870,19 @@
         <v>105</v>
       </c>
       <c r="T328" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[381] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U328" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V328" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W328" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Broken Soul / Zerbrochene Seele</v>
       </c>
       <c r="X328" s="7" t="str">
@@ -27644,15 +28933,19 @@
         <v>105</v>
       </c>
       <c r="T329" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[382] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U329" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V329" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W329" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Grace of Gloom / Anmut der Gräue</v>
       </c>
       <c r="X329" s="7" t="str">
@@ -27703,15 +28996,19 @@
         <v>105</v>
       </c>
       <c r="T330" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[383] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U330" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V330" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W330" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Gryphon's Ferocity / Wildheit des Greifen</v>
       </c>
       <c r="X330" s="7" t="str">
@@ -27762,15 +29059,19 @@
         <v>105</v>
       </c>
       <c r="T331" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[384] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U331" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V331" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W331" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Wisdom of Vanus / Weisheit von Vanus</v>
       </c>
       <c r="X331" s="7" t="str">
@@ -27821,15 +29122,19 @@
         <v>105</v>
       </c>
       <c r="T332" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[385] = {wayshrines={359,359,359}, traitsNeeded=3, dlcId=10</v>
       </c>
       <c r="U332" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V332" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W332" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Adept Rider / Versierter Reiter</v>
       </c>
       <c r="X332" s="7" t="str">
@@ -27880,15 +29185,19 @@
         <v>105</v>
       </c>
       <c r="T333" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[386] = {wayshrines={360,360,360}, traitsNeeded=6, dlcId=10</v>
       </c>
       <c r="U333" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V333" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W333" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Sload's Semblance / Kreckenantlitz</v>
       </c>
       <c r="X333" s="7" t="str">
@@ -27939,15 +29248,19 @@
         <v>105</v>
       </c>
       <c r="T334" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[387] = {wayshrines={354,354,354}, traitsNeeded=9, dlcId=10</v>
       </c>
       <c r="U334" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V334" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W334" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Nocturnal's Favor / Nocturnals Gunst</v>
       </c>
       <c r="X334" s="7" t="str">
@@ -27998,15 +29311,19 @@
         <v>105</v>
       </c>
       <c r="T335" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[388] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U335" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V335" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W335" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Aegis of Galenwe / Ägis von Galenwe</v>
       </c>
       <c r="X335" s="7" t="str">
@@ -28057,15 +29374,19 @@
         <v>105</v>
       </c>
       <c r="T336" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[389] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U336" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V336" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W336" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Arms of Relequen / Waffen von Relequen</v>
       </c>
       <c r="X336" s="7" t="str">
@@ -28116,15 +29437,19 @@
         <v>105</v>
       </c>
       <c r="T337" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[390] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U337" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V337" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W337" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Mantle of Siroria / Mantel von Siroria</v>
       </c>
       <c r="X337" s="7" t="str">
@@ -28175,15 +29500,19 @@
         <v>105</v>
       </c>
       <c r="T338" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[391] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U338" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V338" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W338" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Vestment of Olorime / Gewandung von Olorime</v>
       </c>
       <c r="X338" s="7" t="str">
@@ -28234,15 +29563,19 @@
         <v>105</v>
       </c>
       <c r="T339" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[392] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U339" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V339" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W339" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Aegis of Galenwe / Perfekte Ägis von Galenwe</v>
       </c>
       <c r="X339" s="7" t="str">
@@ -28293,15 +29626,19 @@
         <v>105</v>
       </c>
       <c r="T340" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[393] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U340" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V340" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W340" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Arms of Relequen / Perfekte Waffen von Relequen</v>
       </c>
       <c r="X340" s="7" t="str">
@@ -28352,15 +29689,19 @@
         <v>105</v>
       </c>
       <c r="T341" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[394] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U341" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V341" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W341" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Mantle of Siroria / Perfekter Mantel von Siroria</v>
       </c>
       <c r="X341" s="7" t="str">
@@ -28411,15 +29752,19 @@
         <v>105</v>
       </c>
       <c r="T342" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[395] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U342" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V342" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W342" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Vestment of Olorime / Perfekte Gewandung von Olorime</v>
       </c>
       <c r="X342" s="7" t="str">
@@ -28476,15 +29821,19 @@
         <v>105</v>
       </c>
       <c r="T343" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[397] = {wayshrines={-1,-1,-1}, dlcId=11</v>
       </c>
       <c r="U343" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>, zoneIds={1055},</v>
+        <f t="shared" si="22"/>
+        <v>, zoneIds={1055}, veteran=false</v>
+      </c>
+      <c r="V343" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W343" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Balorgh / Balorgh</v>
       </c>
       <c r="X343" s="7" t="str">
@@ -28541,15 +29890,19 @@
         <v>105</v>
       </c>
       <c r="T344" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[398] = {wayshrines={-1,-1,-1}, dlcId=11</v>
       </c>
       <c r="U344" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>, zoneIds={1052},</v>
+        <f t="shared" si="22"/>
+        <v>, zoneIds={1052}, veteran=false</v>
+      </c>
+      <c r="V344" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W344" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Vykosa / Vykosa</v>
       </c>
       <c r="X344" s="7" t="str">
@@ -28600,15 +29953,19 @@
         <v>105</v>
       </c>
       <c r="T345" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[399] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U345" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V345" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W345" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Hanu's Compassion / Hanus Mitgefühl</v>
       </c>
       <c r="X345" s="7" t="str">
@@ -28659,15 +30016,19 @@
         <v>105</v>
       </c>
       <c r="T346" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[400] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U346" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V346" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W346" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Blood Moon / Blutmond</v>
       </c>
       <c r="X346" s="7" t="str">
@@ -28718,15 +30079,19 @@
         <v>105</v>
       </c>
       <c r="T347" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[401] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U347" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V347" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W347" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Haven of Ursus / Zuflucht von Ursus</v>
       </c>
       <c r="X347" s="7" t="str">
@@ -28777,15 +30142,19 @@
         <v>105</v>
       </c>
       <c r="T348" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[402] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U348" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V348" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W348" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Moon Hunter / Mondjäger</v>
       </c>
       <c r="X348" s="7" t="str">
@@ -28836,15 +30205,19 @@
         <v>105</v>
       </c>
       <c r="T349" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[403] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U349" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V349" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W349" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Savage Werewolf / Wilder Werwolf</v>
       </c>
       <c r="X349" s="7" t="str">
@@ -28895,15 +30268,19 @@
         <v>105</v>
       </c>
       <c r="T350" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[404] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U350" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V350" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W350" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Jailer's Tenacity / Tenazität des Kerkermeisters</v>
       </c>
       <c r="X350" s="7" t="str">
@@ -28954,15 +30331,19 @@
         <v>105</v>
       </c>
       <c r="T351" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[405] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U351" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V351" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W351" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Bright-Throat's Boast / Hellhalsstolz</v>
       </c>
       <c r="X351" s="7" t="str">
@@ -29013,15 +30394,19 @@
         <v>105</v>
       </c>
       <c r="T352" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[406] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U352" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V352" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W352" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Dead-Water's Guile / Totwassertücke</v>
       </c>
       <c r="X352" s="7" t="str">
@@ -29072,15 +30457,19 @@
         <v>105</v>
       </c>
       <c r="T353" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[407] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U353" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V353" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W353" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Champion of the Hist / Histchampion</v>
       </c>
       <c r="X353" s="7" t="str">
@@ -29131,15 +30520,19 @@
         <v>105</v>
       </c>
       <c r="T354" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[408] = {wayshrines={375,375,375}, dlcId=12</v>
       </c>
       <c r="U354" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V354" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W354" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Grave-Stake Collector / Grabpflocksammler</v>
       </c>
       <c r="X354" s="7" t="str">
@@ -29190,15 +30583,19 @@
         <v>105</v>
       </c>
       <c r="T355" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[409] = {wayshrines={379,379,379}, dlcId=12</v>
       </c>
       <c r="U355" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V355" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W355" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Naga Shaman / Nagaschamane</v>
       </c>
       <c r="X355" s="7" t="str">
@@ -29249,15 +30646,19 @@
         <v>105</v>
       </c>
       <c r="T356" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[410] = {wayshrines={379,379,379}, dlcId=12</v>
       </c>
       <c r="U356" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V356" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W356" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Might of the Lost Legion / Macht der Verlorenen Legion</v>
       </c>
       <c r="X356" s="7" t="str">
@@ -29308,15 +30709,19 @@
         <v>105</v>
       </c>
       <c r="T357" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[411] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U357" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V357" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W357" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Gallant Charge / Galanter Ansturm</v>
       </c>
       <c r="X357" s="7" t="str">
@@ -29367,15 +30772,19 @@
         <v>105</v>
       </c>
       <c r="T358" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[412] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U358" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V358" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W358" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Radial Uppercut / Rundum-Aufwärtsschnitt</v>
       </c>
       <c r="X358" s="7" t="str">
@@ -29426,15 +30835,19 @@
         <v>105</v>
       </c>
       <c r="T359" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[413] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U359" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V359" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W359" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Spectral Cloak / Spektraler Mantel</v>
       </c>
       <c r="X359" s="7" t="str">
@@ -29485,15 +30898,19 @@
         <v>105</v>
       </c>
       <c r="T360" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[414] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U360" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V360" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W360" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Virulent Shot / Virulenter Schuss</v>
       </c>
       <c r="X360" s="7" t="str">
@@ -29544,15 +30961,19 @@
         <v>105</v>
       </c>
       <c r="T361" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[415] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U361" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V361" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W361" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Wild Impulse / Wilder Impuls</v>
       </c>
       <c r="X361" s="7" t="str">
@@ -29603,15 +31024,19 @@
         <v>105</v>
       </c>
       <c r="T362" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[416] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U362" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V362" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W362" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Mender's Ward / Schutz des Pflegers</v>
       </c>
       <c r="X362" s="7" t="str">
@@ -29662,15 +31087,19 @@
         <v>105</v>
       </c>
       <c r="T363" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[417] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U363" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V363" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W363" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Indomitable Fury / Unbeugsamer Zorn</v>
       </c>
       <c r="X363" s="7" t="str">
@@ -29721,15 +31150,19 @@
         <v>105</v>
       </c>
       <c r="T364" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[418] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U364" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V364" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W364" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Spell Strategist / Zauberstratege</v>
       </c>
       <c r="X364" s="7" t="str">
@@ -29780,15 +31213,19 @@
         <v>105</v>
       </c>
       <c r="T365" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[419] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U365" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V365" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W365" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Battlefield Acrobat / Schlachtfeldakrobat</v>
       </c>
       <c r="X365" s="7" t="str">
@@ -29839,15 +31276,19 @@
         <v>105</v>
       </c>
       <c r="T366" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[420] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U366" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V366" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W366" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Soldier of Anguish / Soldat der Pein</v>
       </c>
       <c r="X366" s="7" t="str">
@@ -29898,15 +31339,19 @@
         <v>105</v>
       </c>
       <c r="T367" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[421] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U367" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V367" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W367" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Steadfast Hero / Standhafter Held</v>
       </c>
       <c r="X367" s="7" t="str">
@@ -29957,15 +31402,19 @@
         <v>105</v>
       </c>
       <c r="T368" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[422] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U368" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V368" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W368" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Battalion Defender / Bataillonsverteidiger</v>
       </c>
       <c r="X368" s="7" t="str">
@@ -30016,15 +31465,19 @@
         <v>105</v>
       </c>
       <c r="T369" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[423] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U369" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V369" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W369" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Gallant Charge / Perfekter galanter Ansturm</v>
       </c>
       <c r="X369" s="7" t="str">
@@ -30075,15 +31528,19 @@
         <v>105</v>
       </c>
       <c r="T370" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[424] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U370" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V370" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W370" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Radial Uppercut / Perfekter Rundum-Aufwärtsschnitt</v>
       </c>
       <c r="X370" s="7" t="str">
@@ -30134,15 +31591,19 @@
         <v>105</v>
       </c>
       <c r="T371" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[425] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U371" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V371" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W371" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Spectral Cloak / Perfekter spektraler Mantel</v>
       </c>
       <c r="X371" s="7" t="str">
@@ -30193,15 +31654,19 @@
         <v>105</v>
       </c>
       <c r="T372" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[426] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U372" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V372" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W372" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Virulent Shot / Perfekter virulenter Schuss</v>
       </c>
       <c r="X372" s="7" t="str">
@@ -30252,15 +31717,19 @@
         <v>105</v>
       </c>
       <c r="T373" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[427] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U373" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V373" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W373" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Wild Impulse / Perfekter wilder Impuls</v>
       </c>
       <c r="X373" s="7" t="str">
@@ -30311,15 +31780,19 @@
         <v>105</v>
       </c>
       <c r="T374" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[428] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U374" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V374" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W374" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Perfect Mender's Ward / Perfekter Schutz des Pflegers</v>
       </c>
       <c r="X374" s="7" t="str">
@@ -30370,15 +31843,19 @@
         <v>105</v>
       </c>
       <c r="T375" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[429] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U375" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V375" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W375" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Mighty Glacier / Mächtiger Gletscher</v>
       </c>
       <c r="X375" s="7" t="str">
@@ -30429,15 +31906,19 @@
         <v>105</v>
       </c>
       <c r="T376" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[430] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U376" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V376" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W376" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Tzogvin's Warband / Tzogvins Kriegstrupp</v>
       </c>
       <c r="X376" s="7" t="str">
@@ -30488,15 +31969,19 @@
         <v>105</v>
       </c>
       <c r="T377" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[431] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U377" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V377" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W377" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Icy Conjuror / Eisiger Anrufer</v>
       </c>
       <c r="X377" s="7" t="str">
@@ -30553,15 +32038,19 @@
         <v>105</v>
       </c>
       <c r="T378" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[432] = {wayshrines={-1,-1,-1}, dlcId=13</v>
       </c>
       <c r="U378" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>, zoneIds={1080},</v>
+        <f t="shared" si="22"/>
+        <v>, zoneIds={1080}, veteran=false</v>
+      </c>
+      <c r="V378" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W378" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Stonekeeper / Steinwahrer</v>
       </c>
       <c r="X378" s="7" t="str">
@@ -30615,15 +32104,19 @@
         <v>105</v>
       </c>
       <c r="T379" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[433] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U379" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>, zoneIds={1081},</v>
+        <f t="shared" si="22"/>
+        <v>, zoneIds={1081}, veteran=false</v>
+      </c>
+      <c r="V379" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="W379" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Frozen Watcher / Gefrorener Beobachter</v>
       </c>
       <c r="X379" s="7" t="str">
@@ -30674,15 +32167,19 @@
         <v>105</v>
       </c>
       <c r="T380" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[434] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U380" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V380" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W380" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Scavenging Demise / Ausbeutender Niedergang</v>
       </c>
       <c r="X380" s="7" t="str">
@@ -30733,15 +32230,19 @@
         <v>105</v>
       </c>
       <c r="T381" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[435] = {wayshrines={-1,-1,-1}, dlcId=0</v>
       </c>
       <c r="U381" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
+        <v>, veteran=false</v>
+      </c>
+      <c r="V381" s="7" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W381" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Auroran's Thunder / Donner des Auroraners</v>
       </c>
       <c r="X381" s="7" t="str">
@@ -30798,15 +32299,19 @@
         <v>105</v>
       </c>
       <c r="T382" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[436] = {wayshrines={-1,-1,-1}, dlcId=13</v>
       </c>
       <c r="U382" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>, zoneIds={1081},</v>
+        <f t="shared" si="22"/>
+        <v>, zoneIds={1081}, veteran=false</v>
+      </c>
+      <c r="V382" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>, isMonster=true</v>
       </c>
       <c r="W382" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> --Symphony of Blades / Sinfonie der Klingen</v>
       </c>
       <c r="X382" s="7" t="str">
@@ -58645,7 +60150,7 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58701,10 +60206,7 @@
         <v>162</v>
       </c>
       <c r="I2">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="M2">
         <v>20</v>
